--- a/ME_Data.xlsx
+++ b/ME_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\USERS\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HTPC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2E2367-BB88-498C-BD2F-3F8548E0E306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AD75F0-FB0C-4FD8-8E42-96BEB40C8786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="2" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="127">
   <si>
     <t>ContractID</t>
   </si>
@@ -396,6 +396,33 @@
   </si>
   <si>
     <t>ERI # 01.0</t>
+  </si>
+  <si>
+    <t>Removal of AtoNs</t>
+  </si>
+  <si>
+    <t>NKL-LT-12161 - ERI#01 - Removal of AtoNs.pdf</t>
+  </si>
+  <si>
+    <t>ERI1.2</t>
+  </si>
+  <si>
+    <t>ERI # 01.2</t>
+  </si>
+  <si>
+    <t>ERI1.3</t>
+  </si>
+  <si>
+    <t>ERI # 01.3</t>
+  </si>
+  <si>
+    <t>NKL-LT-12161 - ERI#02 - Removal of AtoNs.pdf</t>
+  </si>
+  <si>
+    <t>NKL-LT-12161 - ERI#03 - Removal of AtoNs.pdf</t>
+  </si>
+  <si>
+    <t>NKL-LT-12161 - ERI#04 - Removal of AtoNs.pdf</t>
   </si>
 </sst>
 </file>
@@ -406,7 +433,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-14C09]d\ mmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -805,23 +832,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AB72AA-E0A5-4964-A19A-4567899157D8}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.875" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="15.2890625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="23.2890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -847,7 +874,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -870,7 +897,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -893,7 +920,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -916,7 +943,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -939,7 +966,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -962,7 +989,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -985,7 +1012,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1008,7 +1035,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1031,7 +1058,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1054,7 +1081,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1077,7 +1104,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1100,7 +1127,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1123,7 +1150,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1146,7 +1173,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1169,7 +1196,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1192,7 +1219,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1215,7 +1242,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1238,7 +1265,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1261,7 +1288,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1284,7 +1311,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1307,7 +1334,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1330,7 +1357,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1353,7 +1380,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1376,7 +1403,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1399,7 +1426,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1422,7 +1449,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1445,7 +1472,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1486,18 +1513,18 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="13.4140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -1520,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1543,7 +1570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1566,7 +1593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1589,7 +1616,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1612,7 +1639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1635,7 +1662,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1658,7 +1685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1681,7 +1708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1704,7 +1731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1727,7 +1754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1750,7 +1777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1773,7 +1800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1796,7 +1823,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1819,7 +1846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1842,7 +1869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1865,7 +1892,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1888,7 +1915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1911,7 +1938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1931,7 +1958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1954,7 +1981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1977,7 +2004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2000,7 +2027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2023,7 +2050,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2046,7 +2073,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2069,7 +2096,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2092,7 +2119,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2115,7 +2142,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2147,29 +2174,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBBA4E3-A28A-4D5B-BF07-0EFEC9B4F80F}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.70703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.70703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.70703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -2201,7 +2228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -2230,7 +2257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -2259,10 +2286,131 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="5">
+        <v>45424</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="5">
+        <v>45425</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="5">
+        <v>45426</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="5">
+        <v>45427</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{0EBB6C8D-787F-41BB-A920-35615D5D5329}"/>
     <hyperlink ref="G3" r:id="rId2" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{518834F5-7D83-4314-ACA8-A6D56F9F865B}"/>
+    <hyperlink ref="G4" r:id="rId3" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{CE2C36E8-61DE-43CA-9DEF-B1E269FE43F6}"/>
+    <hyperlink ref="G5" r:id="rId4" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{8BB76875-D207-44C0-B5C2-EED4A34DCF5D}"/>
+    <hyperlink ref="G6" r:id="rId5" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{131136A8-2C69-4314-9FD7-479A9395FEFD}"/>
+    <hyperlink ref="G7" r:id="rId6" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{25E86267-E4B3-4C2E-9B69-4725234A8324}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ME_Data.xlsx
+++ b/ME_Data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HTPC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arun/Desktop/ME/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AD75F0-FB0C-4FD8-8E42-96BEB40C8786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9207369A-32F2-504B-B765-DB33121470B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="2" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
+    <workbookView xWindow="13660" yWindow="6780" windowWidth="19380" windowHeight="10260" activeTab="2" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
     <sheet name="Activities" sheetId="2" r:id="rId2"/>
     <sheet name="Documents" sheetId="3" r:id="rId3"/>
+    <sheet name="Media" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Activities!$A$1:$G$28</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="136">
   <si>
     <t>ContractID</t>
   </si>
@@ -423,6 +424,33 @@
   </si>
   <si>
     <t>NKL-LT-12161 - ERI#04 - Removal of AtoNs.pdf</t>
+  </si>
+  <si>
+    <t>ImageURL</t>
+  </si>
+  <si>
+    <t>DateTaken</t>
+  </si>
+  <si>
+    <t>ProjectManager</t>
+  </si>
+  <si>
+    <t>ProjectType</t>
+  </si>
+  <si>
+    <t>LastUpdatedDate</t>
+  </si>
+  <si>
+    <t>ActivityType</t>
+  </si>
+  <si>
+    <t>DueDate</t>
+  </si>
+  <si>
+    <t>DocumentDate</t>
+  </si>
+  <si>
+    <t>Tags</t>
   </si>
 </sst>
 </file>
@@ -430,10 +458,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$-14C09]d\ mmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$-10000]d\ mmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,13 +510,13 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -830,25 +858,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AB72AA-E0A5-4964-A19A-4567899157D8}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.875" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="15.2890625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="23.2890625" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -873,8 +899,17 @@
       <c r="H1" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -897,7 +932,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -920,7 +955,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -943,7 +978,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -966,7 +1001,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -989,7 +1024,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1012,7 +1047,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1035,7 +1070,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1058,7 +1093,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1081,7 +1116,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1104,7 +1139,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1127,7 +1162,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1150,7 +1185,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1173,7 +1208,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1196,7 +1231,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1219,7 +1254,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1242,7 +1277,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1265,7 +1300,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1288,7 +1323,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1311,7 +1346,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1334,7 +1369,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1357,7 +1392,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1380,7 +1415,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1403,7 +1438,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1426,7 +1461,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1449,7 +1484,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1472,7 +1507,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1507,24 +1542,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92AA489-E72A-4D21-B567-12214BF1A391}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -1546,8 +1581,14 @@
       <c r="G1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1570,7 +1611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1593,7 +1634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1616,7 +1657,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1639,7 +1680,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1662,7 +1703,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1685,7 +1726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1708,7 +1749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1731,7 +1772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1754,7 +1795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1777,7 +1818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1800,7 +1841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1823,7 +1864,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1846,7 +1887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1869,7 +1910,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1892,7 +1933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1915,7 +1956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1938,7 +1979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1958,7 +1999,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1981,7 +2022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2004,7 +2045,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2027,7 +2068,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2050,7 +2091,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2073,7 +2114,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2096,7 +2137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2119,7 +2160,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2142,7 +2183,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2174,29 +2215,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBBA4E3-A28A-4D5B-BF07-0EFEC9B4F80F}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.70703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.70703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.4140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.70703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -2227,8 +2268,14 @@
       <c r="J1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -2257,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -2286,7 +2333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -2315,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -2344,7 +2391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -2373,7 +2420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>122</v>
       </c>
@@ -2414,4 +2461,36 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FCD525-7C72-5E4A-A411-2BC0A6F23C8E}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ME_Data.xlsx
+++ b/ME_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\ME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079FC4A0-29DA-45DD-8166-83EAAD94A96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42C3D2F-B8A4-47EC-97AA-FFEBD1213A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16380" yWindow="4170" windowWidth="19010" windowHeight="10190" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="226">
   <si>
     <t>Status</t>
   </si>
@@ -448,6 +448,279 @@
   </si>
   <si>
     <t>Assigned To</t>
+  </si>
+  <si>
+    <t>MANU REGHURAJAN</t>
+  </si>
+  <si>
+    <t>SAJI HASSAN</t>
+  </si>
+  <si>
+    <t>HUSSAIN KHANSAHEB</t>
+  </si>
+  <si>
+    <t>ABDULALEEM HUBOUS</t>
+  </si>
+  <si>
+    <t>M00001</t>
+  </si>
+  <si>
+    <t>ERI#01 - Additional Sand Stockpiles.pdf</t>
+  </si>
+  <si>
+    <t>ERI#01 - Removal of AtoNs.pdf</t>
+  </si>
+  <si>
+    <t>ERI#02 - Removal of AtoNs.pdf</t>
+  </si>
+  <si>
+    <t>ERI#03 - Removal of AtoNs.pdf</t>
+  </si>
+  <si>
+    <t>ERI#04 - Removal of AtoNs.pdf</t>
+  </si>
+  <si>
+    <t>FN 1</t>
+  </si>
+  <si>
+    <t>FN 2</t>
+  </si>
+  <si>
+    <t>FN 3</t>
+  </si>
+  <si>
+    <t>FN 4</t>
+  </si>
+  <si>
+    <t>FN 5</t>
+  </si>
+  <si>
+    <t>FN 6</t>
+  </si>
+  <si>
+    <t>FN 7</t>
+  </si>
+  <si>
+    <t>FN 8</t>
+  </si>
+  <si>
+    <t>FN 9</t>
+  </si>
+  <si>
+    <t>FN 10</t>
+  </si>
+  <si>
+    <t>FN 11</t>
+  </si>
+  <si>
+    <t>FN 12</t>
+  </si>
+  <si>
+    <t>FN 13</t>
+  </si>
+  <si>
+    <t>FN 14</t>
+  </si>
+  <si>
+    <t>FN 15</t>
+  </si>
+  <si>
+    <t>FN 16</t>
+  </si>
+  <si>
+    <t>FN 17</t>
+  </si>
+  <si>
+    <t>FN 18</t>
+  </si>
+  <si>
+    <t>FN 19</t>
+  </si>
+  <si>
+    <t>FN 20</t>
+  </si>
+  <si>
+    <t>FN 21</t>
+  </si>
+  <si>
+    <t>FN 22</t>
+  </si>
+  <si>
+    <t>FN 23</t>
+  </si>
+  <si>
+    <t>FN 24</t>
+  </si>
+  <si>
+    <t>FN 25</t>
+  </si>
+  <si>
+    <t>FN 26</t>
+  </si>
+  <si>
+    <t>FN 27</t>
+  </si>
+  <si>
+    <t>JPG</t>
+  </si>
+  <si>
+    <t>Image 1</t>
+  </si>
+  <si>
+    <t>Image 2</t>
+  </si>
+  <si>
+    <t>Image 3</t>
+  </si>
+  <si>
+    <t>Image 4</t>
+  </si>
+  <si>
+    <t>Image 5</t>
+  </si>
+  <si>
+    <t>Image 6</t>
+  </si>
+  <si>
+    <t>Image 7</t>
+  </si>
+  <si>
+    <t>Image 8</t>
+  </si>
+  <si>
+    <t>Image 9</t>
+  </si>
+  <si>
+    <t>Image 10</t>
+  </si>
+  <si>
+    <t>Image 11</t>
+  </si>
+  <si>
+    <t>Image 12</t>
+  </si>
+  <si>
+    <t>Image 13</t>
+  </si>
+  <si>
+    <t>Image 14</t>
+  </si>
+  <si>
+    <t>Image 15</t>
+  </si>
+  <si>
+    <t>Image 16</t>
+  </si>
+  <si>
+    <t>Image 17</t>
+  </si>
+  <si>
+    <t>Image 18</t>
+  </si>
+  <si>
+    <t>Image 19</t>
+  </si>
+  <si>
+    <t>Image 20</t>
+  </si>
+  <si>
+    <t>Image 21</t>
+  </si>
+  <si>
+    <t>Image 22</t>
+  </si>
+  <si>
+    <t>Image 23</t>
+  </si>
+  <si>
+    <t>Image 24</t>
+  </si>
+  <si>
+    <t>Image 25</t>
+  </si>
+  <si>
+    <t>Image 26</t>
+  </si>
+  <si>
+    <t>Image 27</t>
+  </si>
+  <si>
+    <t>M00002</t>
+  </si>
+  <si>
+    <t>M00003</t>
+  </si>
+  <si>
+    <t>M00004</t>
+  </si>
+  <si>
+    <t>M00005</t>
+  </si>
+  <si>
+    <t>M00006</t>
+  </si>
+  <si>
+    <t>M00007</t>
+  </si>
+  <si>
+    <t>M00008</t>
+  </si>
+  <si>
+    <t>M00009</t>
+  </si>
+  <si>
+    <t>M00010</t>
+  </si>
+  <si>
+    <t>M00011</t>
+  </si>
+  <si>
+    <t>M00012</t>
+  </si>
+  <si>
+    <t>M00013</t>
+  </si>
+  <si>
+    <t>M00014</t>
+  </si>
+  <si>
+    <t>M00015</t>
+  </si>
+  <si>
+    <t>M00016</t>
+  </si>
+  <si>
+    <t>M00017</t>
+  </si>
+  <si>
+    <t>M00018</t>
+  </si>
+  <si>
+    <t>M00019</t>
+  </si>
+  <si>
+    <t>M00020</t>
+  </si>
+  <si>
+    <t>M00021</t>
+  </si>
+  <si>
+    <t>M00022</t>
+  </si>
+  <si>
+    <t>M00023</t>
+  </si>
+  <si>
+    <t>M00024</t>
+  </si>
+  <si>
+    <t>M00025</t>
+  </si>
+  <si>
+    <t>M00026</t>
+  </si>
+  <si>
+    <t>M00027</t>
   </si>
 </sst>
 </file>
@@ -860,7 +1133,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A2" sqref="A2:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -932,6 +1205,9 @@
       <c r="G2" t="s">
         <v>53</v>
       </c>
+      <c r="H2" t="s">
+        <v>94</v>
+      </c>
       <c r="I2" s="3" t="s">
         <v>82</v>
       </c>
@@ -955,6 +1231,9 @@
       <c r="G3" t="s">
         <v>62</v>
       </c>
+      <c r="H3" t="s">
+        <v>135</v>
+      </c>
       <c r="I3" s="3" t="s">
         <v>83</v>
       </c>
@@ -978,6 +1257,9 @@
       <c r="G4" t="s">
         <v>53</v>
       </c>
+      <c r="H4" t="s">
+        <v>137</v>
+      </c>
       <c r="I4" s="3" t="s">
         <v>83</v>
       </c>
@@ -1001,6 +1283,9 @@
       <c r="G5" t="s">
         <v>54</v>
       </c>
+      <c r="H5" t="s">
+        <v>136</v>
+      </c>
       <c r="I5" s="3" t="s">
         <v>82</v>
       </c>
@@ -1024,6 +1309,9 @@
       <c r="G6" t="s">
         <v>55</v>
       </c>
+      <c r="H6" t="s">
+        <v>138</v>
+      </c>
       <c r="I6" s="3" t="s">
         <v>83</v>
       </c>
@@ -1047,6 +1335,9 @@
       <c r="G7" t="s">
         <v>56</v>
       </c>
+      <c r="H7" t="s">
+        <v>94</v>
+      </c>
       <c r="I7" s="3" t="s">
         <v>83</v>
       </c>
@@ -1070,6 +1361,9 @@
       <c r="G8" t="s">
         <v>54</v>
       </c>
+      <c r="H8" t="s">
+        <v>135</v>
+      </c>
       <c r="I8" s="3" t="s">
         <v>83</v>
       </c>
@@ -1093,6 +1387,9 @@
       <c r="G9" t="s">
         <v>55</v>
       </c>
+      <c r="H9" t="s">
+        <v>137</v>
+      </c>
       <c r="I9" s="3" t="s">
         <v>83</v>
       </c>
@@ -1116,6 +1413,9 @@
       <c r="G10" t="s">
         <v>56</v>
       </c>
+      <c r="H10" t="s">
+        <v>136</v>
+      </c>
       <c r="I10" s="3" t="s">
         <v>83</v>
       </c>
@@ -1139,6 +1439,9 @@
       <c r="G11" t="s">
         <v>55</v>
       </c>
+      <c r="H11" t="s">
+        <v>138</v>
+      </c>
       <c r="I11" s="3" t="s">
         <v>83</v>
       </c>
@@ -1162,6 +1465,9 @@
       <c r="G12" t="s">
         <v>55</v>
       </c>
+      <c r="H12" t="s">
+        <v>94</v>
+      </c>
       <c r="I12" s="3" t="s">
         <v>83</v>
       </c>
@@ -1185,6 +1491,9 @@
       <c r="G13" t="s">
         <v>55</v>
       </c>
+      <c r="H13" t="s">
+        <v>135</v>
+      </c>
       <c r="I13" s="3" t="s">
         <v>83</v>
       </c>
@@ -1208,6 +1517,9 @@
       <c r="G14" t="s">
         <v>55</v>
       </c>
+      <c r="H14" t="s">
+        <v>137</v>
+      </c>
       <c r="I14" s="3" t="s">
         <v>82</v>
       </c>
@@ -1231,6 +1543,9 @@
       <c r="G15" t="s">
         <v>55</v>
       </c>
+      <c r="H15" t="s">
+        <v>136</v>
+      </c>
       <c r="I15" s="3" t="s">
         <v>83</v>
       </c>
@@ -1254,6 +1569,9 @@
       <c r="G16" t="s">
         <v>55</v>
       </c>
+      <c r="H16" t="s">
+        <v>138</v>
+      </c>
       <c r="I16" s="3" t="s">
         <v>83</v>
       </c>
@@ -1277,6 +1595,9 @@
       <c r="G17" t="s">
         <v>55</v>
       </c>
+      <c r="H17" t="s">
+        <v>94</v>
+      </c>
       <c r="I17" s="3" t="s">
         <v>82</v>
       </c>
@@ -1300,6 +1621,9 @@
       <c r="G18" t="s">
         <v>54</v>
       </c>
+      <c r="H18" t="s">
+        <v>135</v>
+      </c>
       <c r="I18" s="3" t="s">
         <v>82</v>
       </c>
@@ -1323,6 +1647,9 @@
       <c r="G19" t="s">
         <v>55</v>
       </c>
+      <c r="H19" t="s">
+        <v>137</v>
+      </c>
       <c r="I19" s="3" t="s">
         <v>83</v>
       </c>
@@ -1346,6 +1673,9 @@
       <c r="G20" t="s">
         <v>54</v>
       </c>
+      <c r="H20" t="s">
+        <v>136</v>
+      </c>
       <c r="I20" s="3" t="s">
         <v>82</v>
       </c>
@@ -1369,6 +1699,9 @@
       <c r="G21" t="s">
         <v>54</v>
       </c>
+      <c r="H21" t="s">
+        <v>138</v>
+      </c>
       <c r="I21" s="3" t="s">
         <v>83</v>
       </c>
@@ -1392,6 +1725,9 @@
       <c r="G22" t="s">
         <v>55</v>
       </c>
+      <c r="H22" t="s">
+        <v>94</v>
+      </c>
       <c r="I22" s="3" t="s">
         <v>83</v>
       </c>
@@ -1415,6 +1751,9 @@
       <c r="G23" t="s">
         <v>54</v>
       </c>
+      <c r="H23" t="s">
+        <v>135</v>
+      </c>
       <c r="I23" s="3" t="s">
         <v>83</v>
       </c>
@@ -1438,6 +1777,9 @@
       <c r="G24" t="s">
         <v>54</v>
       </c>
+      <c r="H24" t="s">
+        <v>137</v>
+      </c>
       <c r="I24" s="3" t="s">
         <v>83</v>
       </c>
@@ -1461,6 +1803,9 @@
       <c r="G25" t="s">
         <v>55</v>
       </c>
+      <c r="H25" t="s">
+        <v>136</v>
+      </c>
       <c r="I25" s="3" t="s">
         <v>83</v>
       </c>
@@ -1484,6 +1829,9 @@
       <c r="G26" t="s">
         <v>55</v>
       </c>
+      <c r="H26" t="s">
+        <v>138</v>
+      </c>
       <c r="I26" s="3" t="s">
         <v>82</v>
       </c>
@@ -1507,6 +1855,9 @@
       <c r="G27" t="s">
         <v>55</v>
       </c>
+      <c r="H27" t="s">
+        <v>94</v>
+      </c>
       <c r="I27" s="3" t="s">
         <v>83</v>
       </c>
@@ -1529,6 +1880,9 @@
       </c>
       <c r="G28" t="s">
         <v>55</v>
+      </c>
+      <c r="H28" t="s">
+        <v>135</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>83</v>
@@ -1549,7 +1903,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D2" sqref="D2:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1606,6 +1960,15 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45550</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45550</v>
+      </c>
       <c r="F2" t="s">
         <v>53</v>
       </c>
@@ -1626,6 +1989,15 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44900</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44900</v>
+      </c>
       <c r="F3" t="s">
         <v>62</v>
       </c>
@@ -1646,6 +2018,15 @@
       <c r="B4" t="s">
         <v>26</v>
       </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44974</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44974</v>
+      </c>
       <c r="F4" t="s">
         <v>53</v>
       </c>
@@ -1666,6 +2047,15 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45078</v>
+      </c>
       <c r="F5" t="s">
         <v>54</v>
       </c>
@@ -1686,6 +2076,15 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45127</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45127</v>
+      </c>
       <c r="F6" t="s">
         <v>55</v>
       </c>
@@ -1706,6 +2105,15 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45169</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45169</v>
+      </c>
       <c r="F7" t="s">
         <v>56</v>
       </c>
@@ -1726,6 +2134,15 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45170</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45170</v>
+      </c>
       <c r="F8" t="s">
         <v>54</v>
       </c>
@@ -1746,6 +2163,15 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45171</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45171</v>
+      </c>
       <c r="F9" t="s">
         <v>55</v>
       </c>
@@ -1766,6 +2192,15 @@
       <c r="B10" t="s">
         <v>21</v>
       </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45172</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45172</v>
+      </c>
       <c r="F10" t="s">
         <v>56</v>
       </c>
@@ -1786,6 +2221,15 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45173</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45173</v>
+      </c>
       <c r="F11" t="s">
         <v>55</v>
       </c>
@@ -1806,6 +2250,15 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45174</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45174</v>
+      </c>
       <c r="F12" t="s">
         <v>55</v>
       </c>
@@ -1826,6 +2279,15 @@
       <c r="B13" t="s">
         <v>26</v>
       </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45175</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45175</v>
+      </c>
       <c r="F13" t="s">
         <v>55</v>
       </c>
@@ -1846,6 +2308,15 @@
       <c r="B14" t="s">
         <v>21</v>
       </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45176</v>
+      </c>
+      <c r="E14" s="1">
+        <v>45176</v>
+      </c>
       <c r="F14" t="s">
         <v>55</v>
       </c>
@@ -1866,6 +2337,15 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45177</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45177</v>
+      </c>
       <c r="F15" t="s">
         <v>55</v>
       </c>
@@ -1886,6 +2366,15 @@
       <c r="B16" t="s">
         <v>16</v>
       </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45178</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45178</v>
+      </c>
       <c r="F16" t="s">
         <v>55</v>
       </c>
@@ -1906,6 +2395,15 @@
       <c r="B17" t="s">
         <v>17</v>
       </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45179</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45179</v>
+      </c>
       <c r="F17" t="s">
         <v>55</v>
       </c>
@@ -1926,6 +2424,15 @@
       <c r="B18" t="s">
         <v>21</v>
       </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45337</v>
+      </c>
+      <c r="E18" s="1">
+        <v>45337</v>
+      </c>
       <c r="F18" t="s">
         <v>54</v>
       </c>
@@ -1946,6 +2453,15 @@
       <c r="B19" t="s">
         <v>19</v>
       </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45328</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45328</v>
+      </c>
       <c r="F19" t="s">
         <v>55</v>
       </c>
@@ -1966,6 +2482,15 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="1">
+        <v>45485</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45485</v>
+      </c>
       <c r="F20" t="s">
         <v>54</v>
       </c>
@@ -1986,6 +2511,15 @@
       <c r="B21" t="s">
         <v>21</v>
       </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45275</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45275</v>
+      </c>
       <c r="F21" t="s">
         <v>54</v>
       </c>
@@ -2006,6 +2540,15 @@
       <c r="B22" t="s">
         <v>22</v>
       </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45180</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45180</v>
+      </c>
       <c r="F22" t="s">
         <v>55</v>
       </c>
@@ -2026,6 +2569,15 @@
       <c r="B23" t="s">
         <v>23</v>
       </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="1">
+        <v>45320</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45320</v>
+      </c>
       <c r="F23" t="s">
         <v>54</v>
       </c>
@@ -2046,6 +2598,15 @@
       <c r="B24" t="s">
         <v>26</v>
       </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="1">
+        <v>45658</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45658</v>
+      </c>
       <c r="F24" t="s">
         <v>54</v>
       </c>
@@ -2066,6 +2627,15 @@
       <c r="B25" t="s">
         <v>25</v>
       </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="1">
+        <v>45659</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45659</v>
+      </c>
       <c r="F25" t="s">
         <v>55</v>
       </c>
@@ -2086,6 +2656,15 @@
       <c r="B26" t="s">
         <v>26</v>
       </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="1">
+        <v>45660</v>
+      </c>
+      <c r="E26" s="1">
+        <v>45660</v>
+      </c>
       <c r="F26" t="s">
         <v>55</v>
       </c>
@@ -2106,6 +2685,15 @@
       <c r="B27" t="s">
         <v>27</v>
       </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="1">
+        <v>45661</v>
+      </c>
+      <c r="E27" s="1">
+        <v>45661</v>
+      </c>
       <c r="F27" t="s">
         <v>55</v>
       </c>
@@ -2125,6 +2713,15 @@
       </c>
       <c r="B28" t="s">
         <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="1">
+        <v>45662</v>
+      </c>
+      <c r="E28" s="1">
+        <v>45662</v>
       </c>
       <c r="F28" t="s">
         <v>55</v>
@@ -2151,7 +2748,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2222,6 +2819,9 @@
       <c r="B2" t="s">
         <v>19</v>
       </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
       <c r="D2" t="s">
         <v>91</v>
       </c>
@@ -2251,6 +2851,9 @@
       <c r="B3" t="s">
         <v>19</v>
       </c>
+      <c r="C3" t="s">
+        <v>140</v>
+      </c>
       <c r="D3" t="s">
         <v>91</v>
       </c>
@@ -2280,6 +2883,9 @@
       <c r="B4" t="s">
         <v>26</v>
       </c>
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
       <c r="D4" t="s">
         <v>91</v>
       </c>
@@ -2309,6 +2915,9 @@
       <c r="B5" t="s">
         <v>26</v>
       </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
       <c r="D5" t="s">
         <v>91</v>
       </c>
@@ -2338,6 +2947,9 @@
       <c r="B6" t="s">
         <v>26</v>
       </c>
+      <c r="C6" t="s">
+        <v>143</v>
+      </c>
       <c r="D6" t="s">
         <v>91</v>
       </c>
@@ -2366,6 +2978,9 @@
       </c>
       <c r="B7" t="s">
         <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>144</v>
       </c>
       <c r="D7" t="s">
         <v>91</v>
@@ -2405,10 +3020,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FCD525-7C72-5E4A-A411-2BC0A6F23C8E}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A2" sqref="A2:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2442,7 +3057,548 @@
         <v>59</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="5">
+        <v>45825</v>
+      </c>
+      <c r="F2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45826</v>
+      </c>
+      <c r="F3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="5">
+        <v>45827</v>
+      </c>
+      <c r="F4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45828</v>
+      </c>
+      <c r="F5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="5">
+        <v>45829</v>
+      </c>
+      <c r="F6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="5">
+        <v>45830</v>
+      </c>
+      <c r="F7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="5">
+        <v>45831</v>
+      </c>
+      <c r="F8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="5">
+        <v>45832</v>
+      </c>
+      <c r="F9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="5">
+        <v>45833</v>
+      </c>
+      <c r="F10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="5">
+        <v>45834</v>
+      </c>
+      <c r="F11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="5">
+        <v>45835</v>
+      </c>
+      <c r="F12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="5">
+        <v>45836</v>
+      </c>
+      <c r="F13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="5">
+        <v>45837</v>
+      </c>
+      <c r="F14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" s="5">
+        <v>45838</v>
+      </c>
+      <c r="F15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" s="5">
+        <v>45839</v>
+      </c>
+      <c r="F16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="5">
+        <v>45840</v>
+      </c>
+      <c r="F17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" s="5">
+        <v>45841</v>
+      </c>
+      <c r="F18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E19" s="5">
+        <v>45842</v>
+      </c>
+      <c r="F19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="5">
+        <v>45843</v>
+      </c>
+      <c r="F20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" s="5">
+        <v>45844</v>
+      </c>
+      <c r="F21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="5">
+        <v>45845</v>
+      </c>
+      <c r="F22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" s="5">
+        <v>45846</v>
+      </c>
+      <c r="F23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="5">
+        <v>45847</v>
+      </c>
+      <c r="F24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" s="5">
+        <v>45848</v>
+      </c>
+      <c r="F25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="5">
+        <v>45849</v>
+      </c>
+      <c r="F26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>224</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" s="5">
+        <v>45850</v>
+      </c>
+      <c r="F27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" s="5">
+        <v>45851</v>
+      </c>
+      <c r="F28" t="s">
+        <v>199</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ME_Data.xlsx
+++ b/ME_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\ME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42C3D2F-B8A4-47EC-97AA-FFEBD1213A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFA77C4-B767-4608-9DD0-6215F5C52248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="227">
   <si>
     <t>Status</t>
   </si>
@@ -721,6 +721,9 @@
   </si>
   <si>
     <t>M00027</t>
+  </si>
+  <si>
+    <t>Dubai Holding</t>
   </si>
 </sst>
 </file>
@@ -1132,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AB72AA-E0A5-4964-A19A-4567899157D8}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1193,6 +1196,9 @@
       <c r="B2" t="s">
         <v>29</v>
       </c>
+      <c r="C2" t="s">
+        <v>226</v>
+      </c>
       <c r="D2" s="6">
         <v>44378</v>
       </c>
@@ -1219,6 +1225,9 @@
       <c r="B3" t="s">
         <v>30</v>
       </c>
+      <c r="C3" t="s">
+        <v>226</v>
+      </c>
       <c r="D3" s="6">
         <v>44819</v>
       </c>
@@ -1245,6 +1254,9 @@
       <c r="B4" t="s">
         <v>31</v>
       </c>
+      <c r="C4" t="s">
+        <v>226</v>
+      </c>
       <c r="D4" s="6">
         <v>45550</v>
       </c>
@@ -1271,6 +1283,9 @@
       <c r="B5" t="s">
         <v>32</v>
       </c>
+      <c r="C5" t="s">
+        <v>226</v>
+      </c>
       <c r="D5" s="6">
         <v>44900</v>
       </c>
@@ -1297,6 +1312,9 @@
       <c r="B6" t="s">
         <v>33</v>
       </c>
+      <c r="C6" t="s">
+        <v>226</v>
+      </c>
       <c r="D6" s="6">
         <v>44974</v>
       </c>
@@ -1323,6 +1341,9 @@
       <c r="B7" t="s">
         <v>34</v>
       </c>
+      <c r="C7" t="s">
+        <v>226</v>
+      </c>
       <c r="D7" s="6">
         <v>45078</v>
       </c>
@@ -1349,6 +1370,9 @@
       <c r="B8" t="s">
         <v>35</v>
       </c>
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
       <c r="D8" s="6">
         <v>45127</v>
       </c>
@@ -1375,6 +1399,9 @@
       <c r="B9" t="s">
         <v>36</v>
       </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
       <c r="D9" s="6">
         <v>45169</v>
       </c>
@@ -1401,6 +1428,9 @@
       <c r="B10" t="s">
         <v>34</v>
       </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
       <c r="D10" s="6">
         <v>45180</v>
       </c>
@@ -1427,6 +1457,9 @@
       <c r="B11" t="s">
         <v>36</v>
       </c>
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
       <c r="D11" s="6" t="s">
         <v>57</v>
       </c>
@@ -1453,6 +1486,9 @@
       <c r="B12" t="s">
         <v>37</v>
       </c>
+      <c r="C12" t="s">
+        <v>226</v>
+      </c>
       <c r="D12" s="6">
         <v>45280</v>
       </c>
@@ -1479,6 +1515,9 @@
       <c r="B13" t="s">
         <v>38</v>
       </c>
+      <c r="C13" t="s">
+        <v>226</v>
+      </c>
       <c r="D13" s="6">
         <v>45352</v>
       </c>
@@ -1505,6 +1544,9 @@
       <c r="B14" t="s">
         <v>39</v>
       </c>
+      <c r="C14" t="s">
+        <v>226</v>
+      </c>
       <c r="D14" s="6">
         <v>45383</v>
       </c>
@@ -1531,6 +1573,9 @@
       <c r="B15" t="s">
         <v>40</v>
       </c>
+      <c r="C15" t="s">
+        <v>226</v>
+      </c>
       <c r="D15" s="6">
         <v>45356</v>
       </c>
@@ -1557,6 +1602,9 @@
       <c r="B16" t="s">
         <v>41</v>
       </c>
+      <c r="C16" t="s">
+        <v>226</v>
+      </c>
       <c r="D16" s="6">
         <v>45357</v>
       </c>
@@ -1583,6 +1631,9 @@
       <c r="B17" t="s">
         <v>42</v>
       </c>
+      <c r="C17" t="s">
+        <v>226</v>
+      </c>
       <c r="D17" s="6" t="s">
         <v>57</v>
       </c>
@@ -1609,6 +1660,9 @@
       <c r="B18" t="s">
         <v>43</v>
       </c>
+      <c r="C18" t="s">
+        <v>226</v>
+      </c>
       <c r="D18" s="6" t="s">
         <v>57</v>
       </c>
@@ -1635,6 +1689,9 @@
       <c r="B19" t="s">
         <v>44</v>
       </c>
+      <c r="C19" t="s">
+        <v>226</v>
+      </c>
       <c r="D19" s="6">
         <v>45540</v>
       </c>
@@ -1661,6 +1718,9 @@
       <c r="B20" t="s">
         <v>45</v>
       </c>
+      <c r="C20" t="s">
+        <v>226</v>
+      </c>
       <c r="D20" s="6">
         <v>45337</v>
       </c>
@@ -1687,6 +1747,9 @@
       <c r="B21" t="s">
         <v>46</v>
       </c>
+      <c r="C21" t="s">
+        <v>226</v>
+      </c>
       <c r="D21" s="6">
         <v>45328</v>
       </c>
@@ -1713,6 +1776,9 @@
       <c r="B22" t="s">
         <v>47</v>
       </c>
+      <c r="C22" t="s">
+        <v>226</v>
+      </c>
       <c r="D22" s="6">
         <v>45485</v>
       </c>
@@ -1739,6 +1805,9 @@
       <c r="B23" t="s">
         <v>34</v>
       </c>
+      <c r="C23" t="s">
+        <v>226</v>
+      </c>
       <c r="D23" s="6">
         <v>45275</v>
       </c>
@@ -1765,6 +1834,9 @@
       <c r="B24" t="s">
         <v>48</v>
       </c>
+      <c r="C24" t="s">
+        <v>226</v>
+      </c>
       <c r="D24" s="6">
         <v>45180</v>
       </c>
@@ -1791,6 +1863,9 @@
       <c r="B25" t="s">
         <v>49</v>
       </c>
+      <c r="C25" t="s">
+        <v>226</v>
+      </c>
       <c r="D25" s="6">
         <v>45320</v>
       </c>
@@ -1817,6 +1892,9 @@
       <c r="B26" t="s">
         <v>50</v>
       </c>
+      <c r="C26" t="s">
+        <v>226</v>
+      </c>
       <c r="D26" s="6">
         <v>45658</v>
       </c>
@@ -1843,6 +1921,9 @@
       <c r="B27" t="s">
         <v>51</v>
       </c>
+      <c r="C27" t="s">
+        <v>226</v>
+      </c>
       <c r="D27" s="6" t="s">
         <v>58</v>
       </c>
@@ -1868,6 +1949,9 @@
       </c>
       <c r="B28" t="s">
         <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>226</v>
       </c>
       <c r="D28" s="6">
         <v>45784</v>
@@ -1903,7 +1987,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E28"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3022,7 +3106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FCD525-7C72-5E4A-A411-2BC0A6F23C8E}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A28"/>
     </sheetView>
   </sheetViews>

--- a/ME_Data.xlsx
+++ b/ME_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\ME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFA77C4-B767-4608-9DD0-6215F5C52248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC37DCC2-9337-4400-9E73-2C30039FACDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
   </bookViews>
@@ -730,10 +730,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-10000]d\ mmm\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="167" formatCode="[$-14C09]d\ mmm\ yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -795,8 +796,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1136,7 +1137,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C28"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1987,7 +1988,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1995,11 +1996,13 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.453125" customWidth="1"/>
-    <col min="4" max="5" width="14.453125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" style="5" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" customWidth="1"/>
     <col min="7" max="7" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="6" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -2015,7 +2018,7 @@
       <c r="D1" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>122</v>
       </c>
       <c r="F1" t="s">
@@ -2027,13 +2030,13 @@
       <c r="H1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J1" t="s">
         <v>114</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2047,7 +2050,7 @@
       <c r="C2" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="6">
         <v>45550</v>
       </c>
       <c r="E2" s="1">
@@ -2062,7 +2065,7 @@
       <c r="H2" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="6">
         <v>45550</v>
       </c>
     </row>
@@ -2076,7 +2079,7 @@
       <c r="C3" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="6">
         <v>44900</v>
       </c>
       <c r="E3" s="1">
@@ -2091,7 +2094,7 @@
       <c r="H3" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="6">
         <v>44900</v>
       </c>
     </row>
@@ -2105,7 +2108,7 @@
       <c r="C4" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="6">
         <v>44974</v>
       </c>
       <c r="E4" s="1">
@@ -2120,7 +2123,7 @@
       <c r="H4" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="6">
         <v>44974</v>
       </c>
     </row>
@@ -2134,7 +2137,7 @@
       <c r="C5" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="6">
         <v>45078</v>
       </c>
       <c r="E5" s="1">
@@ -2149,7 +2152,7 @@
       <c r="H5" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="6">
         <v>45078</v>
       </c>
     </row>
@@ -2163,7 +2166,7 @@
       <c r="C6" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="6">
         <v>45127</v>
       </c>
       <c r="E6" s="1">
@@ -2178,7 +2181,7 @@
       <c r="H6" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="6">
         <v>45127</v>
       </c>
     </row>
@@ -2192,7 +2195,7 @@
       <c r="C7" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="6">
         <v>45169</v>
       </c>
       <c r="E7" s="1">
@@ -2207,7 +2210,7 @@
       <c r="H7" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="6">
         <v>45169</v>
       </c>
     </row>
@@ -2221,7 +2224,7 @@
       <c r="C8" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="6">
         <v>45170</v>
       </c>
       <c r="E8" s="1">
@@ -2236,7 +2239,7 @@
       <c r="H8" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="6">
         <v>45170</v>
       </c>
     </row>
@@ -2250,7 +2253,7 @@
       <c r="C9" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="6">
         <v>45171</v>
       </c>
       <c r="E9" s="1">
@@ -2265,7 +2268,7 @@
       <c r="H9" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="6">
         <v>45171</v>
       </c>
     </row>
@@ -2279,7 +2282,7 @@
       <c r="C10" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="6">
         <v>45172</v>
       </c>
       <c r="E10" s="1">
@@ -2294,7 +2297,7 @@
       <c r="H10" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="6">
         <v>45172</v>
       </c>
     </row>
@@ -2308,7 +2311,7 @@
       <c r="C11" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="6">
         <v>45173</v>
       </c>
       <c r="E11" s="1">
@@ -2323,7 +2326,7 @@
       <c r="H11" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="6">
         <v>45173</v>
       </c>
     </row>
@@ -2337,7 +2340,7 @@
       <c r="C12" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="6">
         <v>45174</v>
       </c>
       <c r="E12" s="1">
@@ -2352,7 +2355,7 @@
       <c r="H12" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="6">
         <v>45174</v>
       </c>
     </row>
@@ -2366,7 +2369,7 @@
       <c r="C13" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="6">
         <v>45175</v>
       </c>
       <c r="E13" s="1">
@@ -2381,7 +2384,7 @@
       <c r="H13" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="6">
         <v>45175</v>
       </c>
     </row>
@@ -2395,7 +2398,7 @@
       <c r="C14" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="6">
         <v>45176</v>
       </c>
       <c r="E14" s="1">
@@ -2410,7 +2413,7 @@
       <c r="H14" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="6">
         <v>45176</v>
       </c>
     </row>
@@ -2424,7 +2427,7 @@
       <c r="C15" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="6">
         <v>45177</v>
       </c>
       <c r="E15" s="1">
@@ -2439,7 +2442,7 @@
       <c r="H15" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="6">
         <v>45177</v>
       </c>
     </row>
@@ -2453,7 +2456,7 @@
       <c r="C16" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="6">
         <v>45178</v>
       </c>
       <c r="E16" s="1">
@@ -2468,7 +2471,7 @@
       <c r="H16" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="6">
         <v>45178</v>
       </c>
     </row>
@@ -2482,7 +2485,7 @@
       <c r="C17" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="6">
         <v>45179</v>
       </c>
       <c r="E17" s="1">
@@ -2497,7 +2500,7 @@
       <c r="H17" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="6">
         <v>45179</v>
       </c>
     </row>
@@ -2511,7 +2514,7 @@
       <c r="C18" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="6">
         <v>45337</v>
       </c>
       <c r="E18" s="1">
@@ -2526,7 +2529,7 @@
       <c r="H18" t="s">
         <v>79</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="6">
         <v>45337</v>
       </c>
     </row>
@@ -2540,7 +2543,7 @@
       <c r="C19" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="6">
         <v>45328</v>
       </c>
       <c r="E19" s="1">
@@ -2555,7 +2558,7 @@
       <c r="H19" t="s">
         <v>95</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="6">
         <v>45328</v>
       </c>
     </row>
@@ -2569,7 +2572,7 @@
       <c r="C20" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="6">
         <v>45485</v>
       </c>
       <c r="E20" s="1">
@@ -2584,7 +2587,7 @@
       <c r="H20" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="6">
         <v>45485</v>
       </c>
     </row>
@@ -2598,7 +2601,7 @@
       <c r="C21" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="6">
         <v>45275</v>
       </c>
       <c r="E21" s="1">
@@ -2613,7 +2616,7 @@
       <c r="H21" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="6">
         <v>45275</v>
       </c>
     </row>
@@ -2627,7 +2630,7 @@
       <c r="C22" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="6">
         <v>45180</v>
       </c>
       <c r="E22" s="1">
@@ -2642,7 +2645,7 @@
       <c r="H22" t="s">
         <v>74</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="6">
         <v>45180</v>
       </c>
     </row>
@@ -2656,7 +2659,7 @@
       <c r="C23" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="6">
         <v>45320</v>
       </c>
       <c r="E23" s="1">
@@ -2671,7 +2674,7 @@
       <c r="H23" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="6">
         <v>45320</v>
       </c>
     </row>
@@ -2685,7 +2688,7 @@
       <c r="C24" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="6">
         <v>45658</v>
       </c>
       <c r="E24" s="1">
@@ -2700,7 +2703,7 @@
       <c r="H24" t="s">
         <v>76</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="6">
         <v>45658</v>
       </c>
     </row>
@@ -2714,7 +2717,7 @@
       <c r="C25" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="6">
         <v>45659</v>
       </c>
       <c r="E25" s="1">
@@ -2729,7 +2732,7 @@
       <c r="H25" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="6">
         <v>45659</v>
       </c>
     </row>
@@ -2743,7 +2746,7 @@
       <c r="C26" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="6">
         <v>45660</v>
       </c>
       <c r="E26" s="1">
@@ -2758,7 +2761,7 @@
       <c r="H26" t="s">
         <v>78</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="6">
         <v>45660</v>
       </c>
     </row>
@@ -2772,7 +2775,7 @@
       <c r="C27" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="6">
         <v>45661</v>
       </c>
       <c r="E27" s="1">
@@ -2787,7 +2790,7 @@
       <c r="H27" t="s">
         <v>79</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="6">
         <v>45661</v>
       </c>
     </row>
@@ -2801,7 +2804,7 @@
       <c r="C28" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="6">
         <v>45662</v>
       </c>
       <c r="E28" s="1">
@@ -2816,7 +2819,7 @@
       <c r="H28" t="s">
         <v>80</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="6">
         <v>45662</v>
       </c>
     </row>
@@ -2832,7 +2835,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2840,12 +2843,12 @@
     <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.81640625" customWidth="1"/>
     <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" style="5" customWidth="1"/>
     <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.36328125" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.81640625" bestFit="1" customWidth="1"/>
@@ -2865,7 +2868,7 @@
       <c r="D1" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>127</v>
       </c>
       <c r="F1" t="s">
@@ -2880,7 +2883,7 @@
       <c r="I1" t="s">
         <v>87</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>88</v>
       </c>
       <c r="K1" t="s">
@@ -2921,7 +2924,7 @@
       <c r="I2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="6">
         <v>45821</v>
       </c>
       <c r="K2">
@@ -2953,7 +2956,7 @@
       <c r="I3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="6">
         <v>45821</v>
       </c>
       <c r="K3">
@@ -2985,7 +2988,7 @@
       <c r="I4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <v>45424</v>
       </c>
       <c r="K4">
@@ -3017,7 +3020,7 @@
       <c r="I5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="6">
         <v>45425</v>
       </c>
       <c r="K5">
@@ -3049,7 +3052,7 @@
       <c r="I6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="6">
         <v>45426</v>
       </c>
       <c r="K6">
@@ -3081,7 +3084,7 @@
       <c r="I7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="6">
         <v>45427</v>
       </c>
       <c r="K7">
@@ -3107,10 +3110,13 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A28"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="10.90625" style="6"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -3125,7 +3131,7 @@
       <c r="D1" t="s">
         <v>130</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>127</v>
       </c>
       <c r="F1" t="s">
@@ -3154,7 +3160,7 @@
       <c r="D2" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>45825</v>
       </c>
       <c r="F2" t="s">
@@ -3174,7 +3180,7 @@
       <c r="D3" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>45826</v>
       </c>
       <c r="F3" t="s">
@@ -3194,7 +3200,7 @@
       <c r="D4" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>45827</v>
       </c>
       <c r="F4" t="s">
@@ -3214,7 +3220,7 @@
       <c r="D5" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>45828</v>
       </c>
       <c r="F5" t="s">
@@ -3234,7 +3240,7 @@
       <c r="D6" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>45829</v>
       </c>
       <c r="F6" t="s">
@@ -3254,7 +3260,7 @@
       <c r="D7" t="s">
         <v>172</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>45830</v>
       </c>
       <c r="F7" t="s">
@@ -3274,7 +3280,7 @@
       <c r="D8" t="s">
         <v>172</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>45831</v>
       </c>
       <c r="F8" t="s">
@@ -3294,7 +3300,7 @@
       <c r="D9" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>45832</v>
       </c>
       <c r="F9" t="s">
@@ -3314,7 +3320,7 @@
       <c r="D10" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="6">
         <v>45833</v>
       </c>
       <c r="F10" t="s">
@@ -3334,7 +3340,7 @@
       <c r="D11" t="s">
         <v>172</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="6">
         <v>45834</v>
       </c>
       <c r="F11" t="s">
@@ -3354,7 +3360,7 @@
       <c r="D12" t="s">
         <v>172</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="6">
         <v>45835</v>
       </c>
       <c r="F12" t="s">
@@ -3374,7 +3380,7 @@
       <c r="D13" t="s">
         <v>172</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="6">
         <v>45836</v>
       </c>
       <c r="F13" t="s">
@@ -3394,7 +3400,7 @@
       <c r="D14" t="s">
         <v>172</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="6">
         <v>45837</v>
       </c>
       <c r="F14" t="s">
@@ -3414,7 +3420,7 @@
       <c r="D15" t="s">
         <v>172</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="6">
         <v>45838</v>
       </c>
       <c r="F15" t="s">
@@ -3434,7 +3440,7 @@
       <c r="D16" t="s">
         <v>172</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="6">
         <v>45839</v>
       </c>
       <c r="F16" t="s">
@@ -3454,7 +3460,7 @@
       <c r="D17" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="6">
         <v>45840</v>
       </c>
       <c r="F17" t="s">
@@ -3474,7 +3480,7 @@
       <c r="D18" t="s">
         <v>172</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="6">
         <v>45841</v>
       </c>
       <c r="F18" t="s">
@@ -3494,7 +3500,7 @@
       <c r="D19" t="s">
         <v>172</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="6">
         <v>45842</v>
       </c>
       <c r="F19" t="s">
@@ -3514,7 +3520,7 @@
       <c r="D20" t="s">
         <v>172</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="6">
         <v>45843</v>
       </c>
       <c r="F20" t="s">
@@ -3534,7 +3540,7 @@
       <c r="D21" t="s">
         <v>172</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="6">
         <v>45844</v>
       </c>
       <c r="F21" t="s">
@@ -3554,7 +3560,7 @@
       <c r="D22" t="s">
         <v>172</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="6">
         <v>45845</v>
       </c>
       <c r="F22" t="s">
@@ -3574,7 +3580,7 @@
       <c r="D23" t="s">
         <v>172</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="6">
         <v>45846</v>
       </c>
       <c r="F23" t="s">
@@ -3594,7 +3600,7 @@
       <c r="D24" t="s">
         <v>172</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="6">
         <v>45847</v>
       </c>
       <c r="F24" t="s">
@@ -3614,7 +3620,7 @@
       <c r="D25" t="s">
         <v>172</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="6">
         <v>45848</v>
       </c>
       <c r="F25" t="s">
@@ -3634,7 +3640,7 @@
       <c r="D26" t="s">
         <v>172</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="6">
         <v>45849</v>
       </c>
       <c r="F26" t="s">
@@ -3654,7 +3660,7 @@
       <c r="D27" t="s">
         <v>172</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="6">
         <v>45850</v>
       </c>
       <c r="F27" t="s">
@@ -3674,7 +3680,7 @@
       <c r="D28" t="s">
         <v>172</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="6">
         <v>45851</v>
       </c>
       <c r="F28" t="s">

--- a/ME_Data.xlsx
+++ b/ME_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\ME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC37DCC2-9337-4400-9E73-2C30039FACDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE27A610-DB69-4746-AC94-8B579D986929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="229">
   <si>
     <t>Status</t>
   </si>
@@ -724,6 +724,12 @@
   </si>
   <si>
     <t>Dubai Holding</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>COMPLETED</t>
   </si>
 </sst>
 </file>
@@ -734,7 +740,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-10000]d\ mmm\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="167" formatCode="[$-14C09]d\ mmm\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-14C09]d\ mmm\ yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -797,7 +803,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1136,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AB72AA-E0A5-4964-A19A-4567899157D8}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1297,7 +1303,7 @@
         <v>3830482</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="H5" t="s">
         <v>136</v>
@@ -1384,7 +1390,7 @@
         <v>30000</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="H8" t="s">
         <v>135</v>
@@ -1674,7 +1680,7 @@
         <v>39370</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="H18" t="s">
         <v>135</v>
@@ -1732,7 +1738,7 @@
         <v>662142</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="H20" t="s">
         <v>136</v>
@@ -1761,7 +1767,7 @@
         <v>794178</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="H21" t="s">
         <v>138</v>
@@ -1819,7 +1825,7 @@
         <v>28350</v>
       </c>
       <c r="G23" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="H23" t="s">
         <v>135</v>
@@ -1848,7 +1854,7 @@
         <v>55450</v>
       </c>
       <c r="G24" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="H24" t="s">
         <v>137</v>
@@ -1988,7 +1994,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2347,7 +2353,7 @@
         <v>45174</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="G12" t="s">
         <v>65</v>
@@ -2463,7 +2469,7 @@
         <v>45178</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="G16" t="s">
         <v>68</v>
@@ -2579,7 +2585,7 @@
         <v>45485</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="G20" t="s">
         <v>64</v>
@@ -2753,7 +2759,7 @@
         <v>45660</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="G26" t="s">
         <v>69</v>
@@ -3109,7 +3115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FCD525-7C72-5E4A-A411-2BC0A6F23C8E}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>

--- a/ME_Data.xlsx
+++ b/ME_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\ME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE27A610-DB69-4746-AC94-8B579D986929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915903DE-5EE5-465C-89A0-61DF3A92E502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
   </bookViews>
@@ -797,13 +797,13 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1143,7 +1143,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1151,9 +1151,9 @@
     <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.81640625" customWidth="1"/>
     <col min="3" max="3" width="13.6328125" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" style="6" customWidth="1"/>
     <col min="7" max="8" width="12.1796875" customWidth="1"/>
     <col min="9" max="9" width="23.36328125" customWidth="1"/>
   </cols>
@@ -1168,13 +1168,13 @@
       <c r="C1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>132</v>
       </c>
       <c r="G1" t="s">
@@ -1183,7 +1183,7 @@
       <c r="H1" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>81</v>
       </c>
       <c r="J1" t="s">
@@ -1206,13 +1206,13 @@
       <c r="C2" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>44378</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>45473</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="6">
         <v>3081439</v>
       </c>
       <c r="G2" t="s">
@@ -1221,7 +1221,7 @@
       <c r="H2" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1235,13 +1235,13 @@
       <c r="C3" t="s">
         <v>226</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>44819</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>45291</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="6">
         <v>116846280.91</v>
       </c>
       <c r="G3" t="s">
@@ -1250,7 +1250,7 @@
       <c r="H3" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1264,13 +1264,13 @@
       <c r="C4" t="s">
         <v>226</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>45550</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>45291</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="6">
         <v>2026426</v>
       </c>
       <c r="G4" t="s">
@@ -1279,7 +1279,7 @@
       <c r="H4" t="s">
         <v>137</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1293,13 +1293,13 @@
       <c r="C5" t="s">
         <v>226</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>44900</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>45347</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="6">
         <v>3830482</v>
       </c>
       <c r="G5" t="s">
@@ -1308,7 +1308,7 @@
       <c r="H5" t="s">
         <v>136</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1322,13 +1322,13 @@
       <c r="C6" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>44974</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>45270</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="6">
         <v>2876809</v>
       </c>
       <c r="G6" t="s">
@@ -1337,7 +1337,7 @@
       <c r="H6" t="s">
         <v>138</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1351,13 +1351,13 @@
       <c r="C7" t="s">
         <v>226</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>45078</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>45443</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="6">
         <v>10050</v>
       </c>
       <c r="G7" t="s">
@@ -1366,7 +1366,7 @@
       <c r="H7" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1380,13 +1380,13 @@
       <c r="C8" t="s">
         <v>226</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>45127</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>45279</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="6">
         <v>30000</v>
       </c>
       <c r="G8" t="s">
@@ -1395,7 +1395,7 @@
       <c r="H8" t="s">
         <v>135</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1409,13 +1409,13 @@
       <c r="C9" t="s">
         <v>226</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>45169</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>45458</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="6">
         <v>1890100</v>
       </c>
       <c r="G9" t="s">
@@ -1424,7 +1424,7 @@
       <c r="H9" t="s">
         <v>137</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1438,13 +1438,13 @@
       <c r="C10" t="s">
         <v>226</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>45180</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="6">
         <v>20160</v>
       </c>
       <c r="G10" t="s">
@@ -1453,7 +1453,7 @@
       <c r="H10" t="s">
         <v>136</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1467,13 +1467,13 @@
       <c r="C11" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="6">
         <v>821600</v>
       </c>
       <c r="G11" t="s">
@@ -1482,7 +1482,7 @@
       <c r="H11" t="s">
         <v>138</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1496,13 +1496,13 @@
       <c r="C12" t="s">
         <v>226</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>45280</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>46010</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="6">
         <v>154600</v>
       </c>
       <c r="G12" t="s">
@@ -1511,7 +1511,7 @@
       <c r="H12" t="s">
         <v>94</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1525,13 +1525,13 @@
       <c r="C13" t="s">
         <v>226</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>45352</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>46446</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="6">
         <v>8850000</v>
       </c>
       <c r="G13" t="s">
@@ -1540,7 +1540,7 @@
       <c r="H13" t="s">
         <v>135</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1554,13 +1554,13 @@
       <c r="C14" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>45383</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>46477</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="6">
         <v>1611872.2</v>
       </c>
       <c r="G14" t="s">
@@ -1569,7 +1569,7 @@
       <c r="H14" t="s">
         <v>137</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1583,13 +1583,13 @@
       <c r="C15" t="s">
         <v>226</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>45356</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>46450</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="6">
         <v>179340</v>
       </c>
       <c r="G15" t="s">
@@ -1598,7 +1598,7 @@
       <c r="H15" t="s">
         <v>136</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1612,13 +1612,13 @@
       <c r="C16" t="s">
         <v>226</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>45357</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>45433</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="6">
         <v>548380</v>
       </c>
       <c r="G16" t="s">
@@ -1627,7 +1627,7 @@
       <c r="H16" t="s">
         <v>138</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1641,13 +1641,13 @@
       <c r="C17" t="s">
         <v>226</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="6">
         <v>5452593</v>
       </c>
       <c r="G17" t="s">
@@ -1656,7 +1656,7 @@
       <c r="H17" t="s">
         <v>94</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1670,13 +1670,13 @@
       <c r="C18" t="s">
         <v>226</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="6">
         <v>39370</v>
       </c>
       <c r="G18" t="s">
@@ -1685,7 +1685,7 @@
       <c r="H18" t="s">
         <v>135</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1699,13 +1699,13 @@
       <c r="C19" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>45540</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>46334</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="6">
         <v>918812281.42999995</v>
       </c>
       <c r="G19" t="s">
@@ -1714,7 +1714,7 @@
       <c r="H19" t="s">
         <v>137</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1728,13 +1728,13 @@
       <c r="C20" t="s">
         <v>226</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>45337</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>45365</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="6">
         <v>662142</v>
       </c>
       <c r="G20" t="s">
@@ -1743,7 +1743,7 @@
       <c r="H20" t="s">
         <v>136</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1757,13 +1757,13 @@
       <c r="C21" t="s">
         <v>226</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>45328</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>45351</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="6">
         <v>794178</v>
       </c>
       <c r="G21" t="s">
@@ -1772,7 +1772,7 @@
       <c r="H21" t="s">
         <v>138</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1786,13 +1786,13 @@
       <c r="C22" t="s">
         <v>226</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>45485</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>46763</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="6">
         <v>9992685</v>
       </c>
       <c r="G22" t="s">
@@ -1801,7 +1801,7 @@
       <c r="H22" t="s">
         <v>94</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1815,13 +1815,13 @@
       <c r="C23" t="s">
         <v>226</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>45275</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="6">
         <v>28350</v>
       </c>
       <c r="G23" t="s">
@@ -1830,7 +1830,7 @@
       <c r="H23" t="s">
         <v>135</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1844,13 +1844,13 @@
       <c r="C24" t="s">
         <v>226</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>45180</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="6">
         <v>55450</v>
       </c>
       <c r="G24" t="s">
@@ -1859,7 +1859,7 @@
       <c r="H24" t="s">
         <v>137</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1873,13 +1873,13 @@
       <c r="C25" t="s">
         <v>226</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>45320</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>46395</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="6">
         <v>0</v>
       </c>
       <c r="G25" t="s">
@@ -1888,7 +1888,7 @@
       <c r="H25" t="s">
         <v>136</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1902,13 +1902,13 @@
       <c r="C26" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>45658</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>46022</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="6">
         <v>400080</v>
       </c>
       <c r="G26" t="s">
@@ -1917,7 +1917,7 @@
       <c r="H26" t="s">
         <v>138</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1931,13 +1931,13 @@
       <c r="C27" t="s">
         <v>226</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="6">
         <v>795756</v>
       </c>
       <c r="G27" t="s">
@@ -1946,7 +1946,7 @@
       <c r="H27" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1960,13 +1960,13 @@
       <c r="C28" t="s">
         <v>226</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>45784</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>45993</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="6">
         <v>17245634</v>
       </c>
       <c r="G28" t="s">
@@ -1975,7 +1975,7 @@
       <c r="H28" t="s">
         <v>135</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2002,13 +2002,13 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.453125" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" style="4" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" customWidth="1"/>
     <col min="7" max="7" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="6" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" style="6"/>
+    <col min="9" max="9" width="17" style="5" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -2021,10 +2021,10 @@
       <c r="C1" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>122</v>
       </c>
       <c r="F1" t="s">
@@ -2036,13 +2036,13 @@
       <c r="H1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>61</v>
       </c>
       <c r="J1" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
       <c r="C2" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>45550</v>
       </c>
       <c r="E2" s="1">
@@ -2071,7 +2071,7 @@
       <c r="H2" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>45550</v>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       <c r="C3" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>44900</v>
       </c>
       <c r="E3" s="1">
@@ -2100,7 +2100,7 @@
       <c r="H3" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>44900</v>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
       <c r="C4" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>44974</v>
       </c>
       <c r="E4" s="1">
@@ -2129,7 +2129,7 @@
       <c r="H4" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>44974</v>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
       <c r="C5" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>45078</v>
       </c>
       <c r="E5" s="1">
@@ -2158,7 +2158,7 @@
       <c r="H5" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>45078</v>
       </c>
     </row>
@@ -2172,7 +2172,7 @@
       <c r="C6" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>45127</v>
       </c>
       <c r="E6" s="1">
@@ -2187,7 +2187,7 @@
       <c r="H6" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>45127</v>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       <c r="C7" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>45169</v>
       </c>
       <c r="E7" s="1">
@@ -2216,7 +2216,7 @@
       <c r="H7" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>45169</v>
       </c>
     </row>
@@ -2230,7 +2230,7 @@
       <c r="C8" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>45170</v>
       </c>
       <c r="E8" s="1">
@@ -2245,7 +2245,7 @@
       <c r="H8" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>45170</v>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
       <c r="C9" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>45171</v>
       </c>
       <c r="E9" s="1">
@@ -2274,7 +2274,7 @@
       <c r="H9" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>45171</v>
       </c>
     </row>
@@ -2288,7 +2288,7 @@
       <c r="C10" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>45172</v>
       </c>
       <c r="E10" s="1">
@@ -2303,7 +2303,7 @@
       <c r="H10" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>45172</v>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
       <c r="C11" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>45173</v>
       </c>
       <c r="E11" s="1">
@@ -2332,7 +2332,7 @@
       <c r="H11" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>45173</v>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       <c r="C12" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>45174</v>
       </c>
       <c r="E12" s="1">
@@ -2361,7 +2361,7 @@
       <c r="H12" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>45174</v>
       </c>
     </row>
@@ -2375,7 +2375,7 @@
       <c r="C13" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>45175</v>
       </c>
       <c r="E13" s="1">
@@ -2390,7 +2390,7 @@
       <c r="H13" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>45175</v>
       </c>
     </row>
@@ -2404,7 +2404,7 @@
       <c r="C14" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>45176</v>
       </c>
       <c r="E14" s="1">
@@ -2419,7 +2419,7 @@
       <c r="H14" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>45176</v>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       <c r="C15" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>45177</v>
       </c>
       <c r="E15" s="1">
@@ -2448,7 +2448,7 @@
       <c r="H15" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <v>45177</v>
       </c>
     </row>
@@ -2462,7 +2462,7 @@
       <c r="C16" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>45178</v>
       </c>
       <c r="E16" s="1">
@@ -2477,7 +2477,7 @@
       <c r="H16" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <v>45178</v>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       <c r="C17" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>45179</v>
       </c>
       <c r="E17" s="1">
@@ -2506,7 +2506,7 @@
       <c r="H17" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <v>45179</v>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       <c r="C18" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>45337</v>
       </c>
       <c r="E18" s="1">
@@ -2535,7 +2535,7 @@
       <c r="H18" t="s">
         <v>79</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <v>45337</v>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       <c r="C19" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>45328</v>
       </c>
       <c r="E19" s="1">
@@ -2564,7 +2564,7 @@
       <c r="H19" t="s">
         <v>95</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>45328</v>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
       <c r="C20" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>45485</v>
       </c>
       <c r="E20" s="1">
@@ -2593,7 +2593,7 @@
       <c r="H20" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <v>45485</v>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
       <c r="C21" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>45275</v>
       </c>
       <c r="E21" s="1">
@@ -2622,7 +2622,7 @@
       <c r="H21" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <v>45275</v>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       <c r="C22" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>45180</v>
       </c>
       <c r="E22" s="1">
@@ -2651,7 +2651,7 @@
       <c r="H22" t="s">
         <v>74</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <v>45180</v>
       </c>
     </row>
@@ -2665,7 +2665,7 @@
       <c r="C23" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>45320</v>
       </c>
       <c r="E23" s="1">
@@ -2680,7 +2680,7 @@
       <c r="H23" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <v>45320</v>
       </c>
     </row>
@@ -2694,7 +2694,7 @@
       <c r="C24" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>45658</v>
       </c>
       <c r="E24" s="1">
@@ -2709,7 +2709,7 @@
       <c r="H24" t="s">
         <v>76</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <v>45658</v>
       </c>
     </row>
@@ -2723,7 +2723,7 @@
       <c r="C25" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>45659</v>
       </c>
       <c r="E25" s="1">
@@ -2738,7 +2738,7 @@
       <c r="H25" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <v>45659</v>
       </c>
     </row>
@@ -2752,7 +2752,7 @@
       <c r="C26" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>45660</v>
       </c>
       <c r="E26" s="1">
@@ -2767,7 +2767,7 @@
       <c r="H26" t="s">
         <v>78</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="5">
         <v>45660</v>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       <c r="C27" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>45661</v>
       </c>
       <c r="E27" s="1">
@@ -2796,7 +2796,7 @@
       <c r="H27" t="s">
         <v>79</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="5">
         <v>45661</v>
       </c>
     </row>
@@ -2810,7 +2810,7 @@
       <c r="C28" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>45662</v>
       </c>
       <c r="E28" s="1">
@@ -2825,7 +2825,7 @@
       <c r="H28" t="s">
         <v>80</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="5">
         <v>45662</v>
       </c>
     </row>
@@ -2849,12 +2849,12 @@
     <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.81640625" customWidth="1"/>
     <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.36328125" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.81640625" bestFit="1" customWidth="1"/>
@@ -2874,7 +2874,7 @@
       <c r="D1" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>127</v>
       </c>
       <c r="F1" t="s">
@@ -2889,7 +2889,7 @@
       <c r="I1" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>88</v>
       </c>
       <c r="K1" t="s">
@@ -2927,10 +2927,10 @@
       <c r="H2" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <v>45821</v>
       </c>
       <c r="K2">
@@ -2959,10 +2959,10 @@
       <c r="H3" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>45821</v>
       </c>
       <c r="K3">
@@ -2991,10 +2991,10 @@
       <c r="H4" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>45424</v>
       </c>
       <c r="K4">
@@ -3023,10 +3023,10 @@
       <c r="H5" t="s">
         <v>106</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>45425</v>
       </c>
       <c r="K5">
@@ -3055,10 +3055,10 @@
       <c r="H6" t="s">
         <v>107</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>45426</v>
       </c>
       <c r="K6">
@@ -3087,10 +3087,10 @@
       <c r="H7" t="s">
         <v>108</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>45427</v>
       </c>
       <c r="K7">
@@ -3121,7 +3121,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="10.90625" style="6"/>
+    <col min="5" max="5" width="10.90625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -3137,7 +3137,7 @@
       <c r="D1" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>127</v>
       </c>
       <c r="F1" t="s">
@@ -3166,7 +3166,7 @@
       <c r="D2" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>45825</v>
       </c>
       <c r="F2" t="s">
@@ -3186,7 +3186,7 @@
       <c r="D3" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>45826</v>
       </c>
       <c r="F3" t="s">
@@ -3206,7 +3206,7 @@
       <c r="D4" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>45827</v>
       </c>
       <c r="F4" t="s">
@@ -3226,7 +3226,7 @@
       <c r="D5" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>45828</v>
       </c>
       <c r="F5" t="s">
@@ -3246,7 +3246,7 @@
       <c r="D6" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>45829</v>
       </c>
       <c r="F6" t="s">
@@ -3266,7 +3266,7 @@
       <c r="D7" t="s">
         <v>172</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>45830</v>
       </c>
       <c r="F7" t="s">
@@ -3286,7 +3286,7 @@
       <c r="D8" t="s">
         <v>172</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>45831</v>
       </c>
       <c r="F8" t="s">
@@ -3306,7 +3306,7 @@
       <c r="D9" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>45832</v>
       </c>
       <c r="F9" t="s">
@@ -3326,7 +3326,7 @@
       <c r="D10" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>45833</v>
       </c>
       <c r="F10" t="s">
@@ -3346,7 +3346,7 @@
       <c r="D11" t="s">
         <v>172</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>45834</v>
       </c>
       <c r="F11" t="s">
@@ -3366,7 +3366,7 @@
       <c r="D12" t="s">
         <v>172</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>45835</v>
       </c>
       <c r="F12" t="s">
@@ -3386,7 +3386,7 @@
       <c r="D13" t="s">
         <v>172</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>45836</v>
       </c>
       <c r="F13" t="s">
@@ -3406,7 +3406,7 @@
       <c r="D14" t="s">
         <v>172</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>45837</v>
       </c>
       <c r="F14" t="s">
@@ -3426,7 +3426,7 @@
       <c r="D15" t="s">
         <v>172</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>45838</v>
       </c>
       <c r="F15" t="s">
@@ -3446,7 +3446,7 @@
       <c r="D16" t="s">
         <v>172</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>45839</v>
       </c>
       <c r="F16" t="s">
@@ -3466,7 +3466,7 @@
       <c r="D17" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>45840</v>
       </c>
       <c r="F17" t="s">
@@ -3486,7 +3486,7 @@
       <c r="D18" t="s">
         <v>172</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>45841</v>
       </c>
       <c r="F18" t="s">
@@ -3506,7 +3506,7 @@
       <c r="D19" t="s">
         <v>172</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>45842</v>
       </c>
       <c r="F19" t="s">
@@ -3526,7 +3526,7 @@
       <c r="D20" t="s">
         <v>172</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>45843</v>
       </c>
       <c r="F20" t="s">
@@ -3546,7 +3546,7 @@
       <c r="D21" t="s">
         <v>172</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>45844</v>
       </c>
       <c r="F21" t="s">
@@ -3566,7 +3566,7 @@
       <c r="D22" t="s">
         <v>172</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>45845</v>
       </c>
       <c r="F22" t="s">
@@ -3586,7 +3586,7 @@
       <c r="D23" t="s">
         <v>172</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>45846</v>
       </c>
       <c r="F23" t="s">
@@ -3606,7 +3606,7 @@
       <c r="D24" t="s">
         <v>172</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>45847</v>
       </c>
       <c r="F24" t="s">
@@ -3626,7 +3626,7 @@
       <c r="D25" t="s">
         <v>172</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>45848</v>
       </c>
       <c r="F25" t="s">
@@ -3646,7 +3646,7 @@
       <c r="D26" t="s">
         <v>172</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>45849</v>
       </c>
       <c r="F26" t="s">
@@ -3666,7 +3666,7 @@
       <c r="D27" t="s">
         <v>172</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>45850</v>
       </c>
       <c r="F27" t="s">
@@ -3686,7 +3686,7 @@
       <c r="D28" t="s">
         <v>172</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>45851</v>
       </c>
       <c r="F28" t="s">

--- a/ME_Data.xlsx
+++ b/ME_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\ME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915903DE-5EE5-465C-89A0-61DF3A92E502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA75571A-F56E-4CA3-B16F-735863033D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="231">
   <si>
     <t>Status</t>
   </si>
@@ -730,6 +730,12 @@
   </si>
   <si>
     <t>COMPLETED</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>pending</t>
   </si>
 </sst>
 </file>
@@ -803,7 +809,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1140,10 +1146,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AB72AA-E0A5-4964-A19A-4567899157D8}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1196,7 +1203,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1225,7 +1232,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1254,7 +1261,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1312,7 +1319,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1341,7 +1348,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1399,7 +1406,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1428,7 +1435,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1457,7 +1464,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1486,7 +1493,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1515,7 +1522,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1544,7 +1551,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1573,7 +1580,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1602,7 +1609,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1631,7 +1638,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1689,7 +1696,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1776,7 +1783,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1863,7 +1870,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1892,7 +1899,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1921,7 +1928,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1950,7 +1957,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1980,7 +1987,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I28" xr:uid="{C6AB72AA-E0A5-4964-A19A-4567899157D8}"/>
+  <autoFilter ref="A1:I28" xr:uid="{C6AB72AA-E0A5-4964-A19A-4567899157D8}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="COMPLETED"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -1993,8 +2006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92AA489-E72A-4D21-B567-12214BF1A391}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2353,7 +2366,7 @@
         <v>45174</v>
       </c>
       <c r="F12" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G12" t="s">
         <v>65</v>
@@ -2469,7 +2482,7 @@
         <v>45178</v>
       </c>
       <c r="F16" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G16" t="s">
         <v>68</v>

--- a/ME_Data.xlsx
+++ b/ME_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\ME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA75571A-F56E-4CA3-B16F-735863033D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AE0DBF-2533-4C5E-8B93-8F3974E0BD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -441,9 +441,6 @@
     <t>Project Name</t>
   </si>
   <si>
-    <t>Value (USD)</t>
-  </si>
-  <si>
     <t>Activity ID</t>
   </si>
   <si>
@@ -736,17 +733,21 @@
   </si>
   <si>
     <t>pending</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-10000]d\ mmm\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="[$-14C09]d\ mmm\ yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="0.00_ ;\-0.00\ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -800,7 +801,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -810,6 +811,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1149,8 +1151,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1160,7 +1162,7 @@
     <col min="3" max="3" width="13.6328125" customWidth="1"/>
     <col min="4" max="4" width="11.1796875" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.36328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" style="7" customWidth="1"/>
     <col min="7" max="8" width="12.1796875" customWidth="1"/>
     <col min="9" max="9" width="23.36328125" customWidth="1"/>
   </cols>
@@ -1181,8 +1183,8 @@
       <c r="E1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>132</v>
+      <c r="F1" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -1211,7 +1213,7 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D2" s="5">
         <v>44378</v>
@@ -1240,7 +1242,7 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D3" s="5">
         <v>44819</v>
@@ -1255,7 +1257,7 @@
         <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>83</v>
@@ -1269,7 +1271,7 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D4" s="5">
         <v>45550</v>
@@ -1284,7 +1286,7 @@
         <v>53</v>
       </c>
       <c r="H4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>83</v>
@@ -1298,7 +1300,7 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D5" s="5">
         <v>44900</v>
@@ -1306,14 +1308,14 @@
       <c r="E5" s="5">
         <v>45347</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>3830482</v>
       </c>
       <c r="G5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>82</v>
@@ -1327,7 +1329,7 @@
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D6" s="5">
         <v>44974</v>
@@ -1342,7 +1344,7 @@
         <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>83</v>
@@ -1356,7 +1358,7 @@
         <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D7" s="5">
         <v>45078</v>
@@ -1385,7 +1387,7 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D8" s="5">
         <v>45127</v>
@@ -1393,14 +1395,14 @@
       <c r="E8" s="5">
         <v>45279</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="7">
         <v>30000</v>
       </c>
       <c r="G8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>83</v>
@@ -1414,7 +1416,7 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D9" s="5">
         <v>45169</v>
@@ -1429,7 +1431,7 @@
         <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>83</v>
@@ -1443,7 +1445,7 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D10" s="5">
         <v>45180</v>
@@ -1458,7 +1460,7 @@
         <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>83</v>
@@ -1472,7 +1474,7 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>57</v>
@@ -1487,7 +1489,7 @@
         <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>83</v>
@@ -1501,7 +1503,7 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D12" s="5">
         <v>45280</v>
@@ -1530,7 +1532,7 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D13" s="5">
         <v>45352</v>
@@ -1545,7 +1547,7 @@
         <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>83</v>
@@ -1559,7 +1561,7 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D14" s="5">
         <v>45383</v>
@@ -1574,7 +1576,7 @@
         <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>82</v>
@@ -1588,7 +1590,7 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D15" s="5">
         <v>45356</v>
@@ -1603,7 +1605,7 @@
         <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>83</v>
@@ -1617,7 +1619,7 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D16" s="5">
         <v>45357</v>
@@ -1632,7 +1634,7 @@
         <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>83</v>
@@ -1646,7 +1648,7 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>57</v>
@@ -1675,7 +1677,7 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>57</v>
@@ -1683,14 +1685,14 @@
       <c r="E18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="7">
         <v>39370</v>
       </c>
       <c r="G18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>82</v>
@@ -1704,7 +1706,7 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D19" s="5">
         <v>45540</v>
@@ -1719,7 +1721,7 @@
         <v>55</v>
       </c>
       <c r="H19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>83</v>
@@ -1733,7 +1735,7 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D20" s="5">
         <v>45337</v>
@@ -1741,14 +1743,14 @@
       <c r="E20" s="5">
         <v>45365</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="7">
         <v>662142</v>
       </c>
       <c r="G20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>82</v>
@@ -1762,7 +1764,7 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D21" s="5">
         <v>45328</v>
@@ -1770,14 +1772,14 @@
       <c r="E21" s="5">
         <v>45351</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="7">
         <v>794178</v>
       </c>
       <c r="G21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>83</v>
@@ -1791,7 +1793,7 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D22" s="5">
         <v>45485</v>
@@ -1820,7 +1822,7 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D23" s="5">
         <v>45275</v>
@@ -1828,14 +1830,14 @@
       <c r="E23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="7">
         <v>28350</v>
       </c>
       <c r="G23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>83</v>
@@ -1849,7 +1851,7 @@
         <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D24" s="5">
         <v>45180</v>
@@ -1857,14 +1859,14 @@
       <c r="E24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="7">
         <v>55450</v>
       </c>
       <c r="G24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>83</v>
@@ -1878,7 +1880,7 @@
         <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D25" s="5">
         <v>45320</v>
@@ -1893,7 +1895,7 @@
         <v>55</v>
       </c>
       <c r="H25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>83</v>
@@ -1907,7 +1909,7 @@
         <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D26" s="5">
         <v>45658</v>
@@ -1922,7 +1924,7 @@
         <v>55</v>
       </c>
       <c r="H26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>82</v>
@@ -1936,7 +1938,7 @@
         <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>58</v>
@@ -1965,7 +1967,7 @@
         <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D28" s="5">
         <v>45784</v>
@@ -1980,7 +1982,7 @@
         <v>55</v>
       </c>
       <c r="H28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>83</v>
@@ -2006,7 +2008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92AA489-E72A-4D21-B567-12214BF1A391}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -2026,7 +2028,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
         <v>124</v>
@@ -2044,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H1" t="s">
         <v>60</v>
@@ -2366,7 +2368,7 @@
         <v>45174</v>
       </c>
       <c r="F12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G12" t="s">
         <v>65</v>
@@ -2482,7 +2484,7 @@
         <v>45178</v>
       </c>
       <c r="F16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G16" t="s">
         <v>68</v>
@@ -2598,7 +2600,7 @@
         <v>45485</v>
       </c>
       <c r="F20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G20" t="s">
         <v>64</v>
@@ -2772,7 +2774,7 @@
         <v>45660</v>
       </c>
       <c r="F26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G26" t="s">
         <v>69</v>
@@ -2926,7 +2928,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
         <v>91</v>
@@ -2958,7 +2960,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
         <v>91</v>
@@ -2990,7 +2992,7 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
         <v>91</v>
@@ -3022,7 +3024,7 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
         <v>91</v>
@@ -3054,7 +3056,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
         <v>91</v>
@@ -3086,7 +3088,7 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D7" t="s">
         <v>91</v>
@@ -3168,542 +3170,542 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E2" s="5">
         <v>45825</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E3" s="5">
         <v>45826</v>
       </c>
       <c r="F3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E4" s="5">
         <v>45827</v>
       </c>
       <c r="F4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E5" s="5">
         <v>45828</v>
       </c>
       <c r="F5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E6" s="5">
         <v>45829</v>
       </c>
       <c r="F6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E7" s="5">
         <v>45830</v>
       </c>
       <c r="F7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E8" s="5">
         <v>45831</v>
       </c>
       <c r="F8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E9" s="5">
         <v>45832</v>
       </c>
       <c r="F9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E10" s="5">
         <v>45833</v>
       </c>
       <c r="F10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E11" s="5">
         <v>45834</v>
       </c>
       <c r="F11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E12" s="5">
         <v>45835</v>
       </c>
       <c r="F12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E13" s="5">
         <v>45836</v>
       </c>
       <c r="F13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E14" s="5">
         <v>45837</v>
       </c>
       <c r="F14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E15" s="5">
         <v>45838</v>
       </c>
       <c r="F15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E16" s="5">
         <v>45839</v>
       </c>
       <c r="F16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E17" s="5">
         <v>45840</v>
       </c>
       <c r="F17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E18" s="5">
         <v>45841</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E19" s="5">
         <v>45842</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E20" s="5">
         <v>45843</v>
       </c>
       <c r="F20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E21" s="5">
         <v>45844</v>
       </c>
       <c r="F21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E22" s="5">
         <v>45845</v>
       </c>
       <c r="F22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E23" s="5">
         <v>45846</v>
       </c>
       <c r="F23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E24" s="5">
         <v>45847</v>
       </c>
       <c r="F24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E25" s="5">
         <v>45848</v>
       </c>
       <c r="F25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E26" s="5">
         <v>45849</v>
       </c>
       <c r="F26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E27" s="5">
         <v>45850</v>
       </c>
       <c r="F27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" t="s">
         <v>171</v>
-      </c>
-      <c r="D28" t="s">
-        <v>172</v>
       </c>
       <c r="E28" s="5">
         <v>45851</v>
       </c>
       <c r="F28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/ME_Data.xlsx
+++ b/ME_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\ME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AE0DBF-2533-4C5E-8B93-8F3974E0BD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01009898-F42E-4E62-8D8F-047648DED909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="233">
   <si>
     <t>Status</t>
   </si>
@@ -736,6 +736,12 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Excalibur1902/me_dashboard/photos/DMS%20147906/Week1/20190616_192611.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Excalibur1902/me_dashboard/photos/DMS%20147906/Week1/20221008_190132.jpg</t>
   </si>
 </sst>
 </file>
@@ -1148,11 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AB72AA-E0A5-4964-A19A-4567899157D8}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1205,7 +1210,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1234,7 +1239,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1263,7 +1268,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1321,7 +1326,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1350,7 +1355,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1408,7 +1413,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1437,7 +1442,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1466,7 +1471,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1495,7 +1500,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1524,7 +1529,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1553,7 +1558,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1582,7 +1587,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1611,7 +1616,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1640,7 +1645,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1698,7 +1703,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1785,7 +1790,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1872,7 +1877,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1901,7 +1906,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1930,7 +1935,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1959,7 +1964,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1989,13 +1994,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I28" xr:uid="{C6AB72AA-E0A5-4964-A19A-4567899157D8}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="COMPLETED"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I28" xr:uid="{C6AB72AA-E0A5-4964-A19A-4567899157D8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -3130,13 +3129,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FCD525-7C72-5E4A-A411-2BC0A6F23C8E}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="10.90625" style="5"/>
+    <col min="7" max="7" width="103.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -3187,6 +3187,9 @@
       <c r="F2" t="s">
         <v>172</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -3207,13 +3210,16 @@
       <c r="F3" t="s">
         <v>173</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>200</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>146</v>
@@ -3226,6 +3232,9 @@
       </c>
       <c r="F4" t="s">
         <v>174</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -3233,7 +3242,7 @@
         <v>201</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>147</v>
@@ -3246,6 +3255,9 @@
       </c>
       <c r="F5" t="s">
         <v>175</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -3253,7 +3265,7 @@
         <v>202</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>148</v>
@@ -3266,6 +3278,9 @@
       </c>
       <c r="F6" t="s">
         <v>176</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -3287,6 +3302,9 @@
       <c r="F7" t="s">
         <v>177</v>
       </c>
+      <c r="G7" s="3" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -3307,13 +3325,16 @@
       <c r="F8" t="s">
         <v>178</v>
       </c>
+      <c r="G8" s="3" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>205</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>151</v>
@@ -3326,6 +3347,9 @@
       </c>
       <c r="F9" t="s">
         <v>179</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -3347,6 +3371,9 @@
       <c r="F10" t="s">
         <v>180</v>
       </c>
+      <c r="G10" s="3" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -3367,13 +3394,16 @@
       <c r="F11" t="s">
         <v>181</v>
       </c>
+      <c r="G11" s="3" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>208</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
         <v>154</v>
@@ -3386,6 +3416,9 @@
       </c>
       <c r="F12" t="s">
         <v>182</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -3407,13 +3440,16 @@
       <c r="F13" t="s">
         <v>183</v>
       </c>
+      <c r="G13" s="3" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>210</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>156</v>
@@ -3426,6 +3462,9 @@
       </c>
       <c r="F14" t="s">
         <v>184</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -3447,6 +3486,9 @@
       <c r="F15" t="s">
         <v>185</v>
       </c>
+      <c r="G15" s="3" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -3467,8 +3509,11 @@
       <c r="F16" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>213</v>
       </c>
@@ -3487,13 +3532,16 @@
       <c r="F17" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>214</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
         <v>160</v>
@@ -3507,8 +3555,11 @@
       <c r="F18" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>215</v>
       </c>
@@ -3527,8 +3578,11 @@
       <c r="F19" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>216</v>
       </c>
@@ -3547,8 +3601,11 @@
       <c r="F20" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>217</v>
       </c>
@@ -3567,8 +3624,11 @@
       <c r="F21" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>218</v>
       </c>
@@ -3587,13 +3647,16 @@
       <c r="F22" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G22" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>219</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
         <v>165</v>
@@ -3607,8 +3670,11 @@
       <c r="F23" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>220</v>
       </c>
@@ -3627,8 +3693,11 @@
       <c r="F24" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>221</v>
       </c>
@@ -3647,8 +3716,11 @@
       <c r="F25" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G25" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>222</v>
       </c>
@@ -3667,13 +3739,16 @@
       <c r="F26" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G26" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>223</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
         <v>169</v>
@@ -3687,13 +3762,16 @@
       <c r="F27" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G27" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>224</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
         <v>170</v>
@@ -3707,9 +3785,18 @@
       <c r="F28" t="s">
         <v>198</v>
       </c>
+      <c r="G28" s="3" t="s">
+        <v>232</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{D15E28B9-55F9-42E6-8E3E-6A01EBF67737}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{0CB1E825-0D9F-4BCD-92B3-8367B1F31843}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{861C6D81-B98A-4772-9841-D58066410233}"/>
+    <hyperlink ref="G5:G28" r:id="rId4" display="https://raw.githubusercontent.com/Excalibur1902/me_dashboard/photos/DMS%20147906/Week1/20221008_190132.jpg" xr:uid="{47665502-F4E1-4E6E-9E20-6A2DA3ED7186}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ME_Data.xlsx
+++ b/ME_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\ME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01009898-F42E-4E62-8D8F-047648DED909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7A9474-B6A4-429A-8B9E-FE0EB19F2D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="234">
   <si>
     <t>Status</t>
   </si>
@@ -742,6 +742,9 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/Excalibur1902/me_dashboard/photos/DMS%20147906/Week1/20221008_190132.jpg</t>
+  </si>
+  <si>
+    <t>ContractID</t>
   </si>
 </sst>
 </file>
@@ -3130,7 +3133,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3144,7 +3147,7 @@
         <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>233</v>
       </c>
       <c r="C1" t="s">
         <v>129</v>

--- a/ME_Data.xlsx
+++ b/ME_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\ME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dubaiholding-my.sharepoint.com/personal/arun_naidu_dhre_ae/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AE0DBF-2533-4C5E-8B93-8F3974E0BD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{999AAC9D-CB53-459D-8D86-EDE0C0C3D54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="235">
   <si>
     <t>Status</t>
   </si>
@@ -736,6 +736,18 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Excalibur1902/me_dashboard/photos/DMS%20147906/Week1/20190616_192611.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Excalibur1902/me_dashboard/photos/DMS%20147906/Week1/20221008_190132.jpg</t>
+  </si>
+  <si>
+    <t>ContractID</t>
+  </si>
+  <si>
+    <t>Z:\USERS\Concept design and Options Report_rev2_25.7 Including Appendices.pdf</t>
   </si>
 </sst>
 </file>
@@ -1148,26 +1160,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AB72AA-E0A5-4964-A19A-4567899157D8}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.81640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" style="7" customWidth="1"/>
-    <col min="7" max="8" width="12.1796875" customWidth="1"/>
-    <col min="9" max="9" width="23.36328125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="7" customWidth="1"/>
+    <col min="7" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -1205,7 +1216,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1234,7 +1245,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1263,7 +1274,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1292,7 +1303,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1321,7 +1332,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1350,7 +1361,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1379,7 +1390,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1408,7 +1419,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1437,7 +1448,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1466,7 +1477,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1495,7 +1506,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1524,7 +1535,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1553,7 +1564,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1582,7 +1593,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1611,7 +1622,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1640,7 +1651,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1669,7 +1680,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1698,7 +1709,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1727,7 +1738,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1756,7 +1767,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1785,7 +1796,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1814,7 +1825,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1843,7 +1854,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1872,7 +1883,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1901,7 +1912,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1930,7 +1941,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1959,7 +1970,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1989,13 +2000,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I28" xr:uid="{C6AB72AA-E0A5-4964-A19A-4567899157D8}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="COMPLETED"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I28" xr:uid="{C6AB72AA-E0A5-4964-A19A-4567899157D8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -2012,21 +2017,21 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" style="5"/>
+    <col min="11" max="11" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>132</v>
       </c>
@@ -2061,7 +2066,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2090,7 +2095,7 @@
         <v>45550</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2119,7 +2124,7 @@
         <v>44900</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2148,7 +2153,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2177,7 +2182,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2206,7 +2211,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2235,7 +2240,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2264,7 +2269,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2293,7 +2298,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2322,7 +2327,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2351,7 +2356,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2380,7 +2385,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2409,7 +2414,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2438,7 +2443,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2467,7 +2472,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2496,7 +2501,7 @@
         <v>45178</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2525,7 +2530,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2554,7 +2559,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2583,7 +2588,7 @@
         <v>45328</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2612,7 +2617,7 @@
         <v>45485</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2641,7 +2646,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2670,7 +2675,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2699,7 +2704,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2728,7 +2733,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2757,7 +2762,7 @@
         <v>45659</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2786,7 +2791,7 @@
         <v>45660</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2815,7 +2820,7 @@
         <v>45661</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2855,28 +2860,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBBA4E3-A28A-4D5B-BF07-0EFEC9B4F80F}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.81640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>123</v>
       </c>
@@ -2920,7 +2925,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -2952,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -2975,7 +2980,7 @@
         <v>92</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>90</v>
+        <v>234</v>
       </c>
       <c r="J3" s="5">
         <v>45821</v>
@@ -2984,7 +2989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -3016,7 +3021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>96</v>
       </c>
@@ -3048,7 +3053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -3071,7 +3076,7 @@
         <v>107</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>90</v>
+        <v>234</v>
       </c>
       <c r="J6" s="5">
         <v>45426</v>
@@ -3080,7 +3085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -3116,11 +3121,9 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{0EBB6C8D-787F-41BB-A920-35615D5D5329}"/>
-    <hyperlink ref="I3" r:id="rId2" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{518834F5-7D83-4314-ACA8-A6D56F9F865B}"/>
-    <hyperlink ref="I4" r:id="rId3" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{CE2C36E8-61DE-43CA-9DEF-B1E269FE43F6}"/>
-    <hyperlink ref="I5" r:id="rId4" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{8BB76875-D207-44C0-B5C2-EED4A34DCF5D}"/>
-    <hyperlink ref="I6" r:id="rId5" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{131136A8-2C69-4314-9FD7-479A9395FEFD}"/>
-    <hyperlink ref="I7" r:id="rId6" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{25E86267-E4B3-4C2E-9B69-4725234A8324}"/>
+    <hyperlink ref="I4" r:id="rId2" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{CE2C36E8-61DE-43CA-9DEF-B1E269FE43F6}"/>
+    <hyperlink ref="I5" r:id="rId3" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{8BB76875-D207-44C0-B5C2-EED4A34DCF5D}"/>
+    <hyperlink ref="I7" r:id="rId4" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{25E86267-E4B3-4C2E-9B69-4725234A8324}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3131,20 +3134,21 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="10.90625" style="5"/>
+    <col min="5" max="5" width="10.85546875" style="5"/>
+    <col min="7" max="7" width="103.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>233</v>
       </c>
       <c r="C1" t="s">
         <v>129</v>
@@ -3168,7 +3172,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -3187,8 +3191,11 @@
       <c r="F2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G2" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>199</v>
       </c>
@@ -3207,13 +3214,16 @@
       <c r="F3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G3" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>200</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>146</v>
@@ -3227,13 +3237,16 @@
       <c r="F4" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G4" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>201</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>147</v>
@@ -3247,13 +3260,16 @@
       <c r="F5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G5" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>202</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>148</v>
@@ -3267,8 +3283,11 @@
       <c r="F6" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G6" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>203</v>
       </c>
@@ -3287,8 +3306,11 @@
       <c r="F7" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G7" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>204</v>
       </c>
@@ -3307,13 +3329,16 @@
       <c r="F8" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G8" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>205</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>151</v>
@@ -3327,8 +3352,11 @@
       <c r="F9" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G9" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>206</v>
       </c>
@@ -3347,8 +3375,11 @@
       <c r="F10" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G10" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>207</v>
       </c>
@@ -3367,13 +3398,16 @@
       <c r="F11" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G11" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>208</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
         <v>154</v>
@@ -3387,8 +3421,11 @@
       <c r="F12" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G12" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>209</v>
       </c>
@@ -3407,13 +3444,16 @@
       <c r="F13" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G13" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>210</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>156</v>
@@ -3427,8 +3467,11 @@
       <c r="F14" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G14" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>211</v>
       </c>
@@ -3447,8 +3490,11 @@
       <c r="F15" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G15" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>212</v>
       </c>
@@ -3467,8 +3513,11 @@
       <c r="F16" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>213</v>
       </c>
@@ -3487,13 +3536,16 @@
       <c r="F17" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>214</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
         <v>160</v>
@@ -3507,8 +3559,11 @@
       <c r="F18" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>215</v>
       </c>
@@ -3527,8 +3582,11 @@
       <c r="F19" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>216</v>
       </c>
@@ -3547,8 +3605,11 @@
       <c r="F20" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>217</v>
       </c>
@@ -3567,8 +3628,11 @@
       <c r="F21" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>218</v>
       </c>
@@ -3587,13 +3651,16 @@
       <c r="F22" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G22" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>219</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
         <v>165</v>
@@ -3607,8 +3674,11 @@
       <c r="F23" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>220</v>
       </c>
@@ -3627,8 +3697,11 @@
       <c r="F24" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>221</v>
       </c>
@@ -3647,8 +3720,11 @@
       <c r="F25" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G25" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>222</v>
       </c>
@@ -3667,13 +3743,16 @@
       <c r="F26" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G26" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>223</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
         <v>169</v>
@@ -3687,13 +3766,16 @@
       <c r="F27" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G27" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>224</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
         <v>170</v>
@@ -3707,9 +3789,19 @@
       <c r="F28" t="s">
         <v>198</v>
       </c>
+      <c r="G28" s="3" t="s">
+        <v>232</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{D15E28B9-55F9-42E6-8E3E-6A01EBF67737}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{0CB1E825-0D9F-4BCD-92B3-8367B1F31843}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{861C6D81-B98A-4772-9841-D58066410233}"/>
+    <hyperlink ref="G5:G28" r:id="rId4" display="https://raw.githubusercontent.com/Excalibur1902/me_dashboard/photos/DMS%20147906/Week1/20221008_190132.jpg" xr:uid="{47665502-F4E1-4E6E-9E20-6A2DA3ED7186}"/>
+    <hyperlink ref="G26" r:id="rId5" xr:uid="{7AFF8813-8241-4770-B4AE-3E3524085BF3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ME_Data.xlsx
+++ b/ME_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\ME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dubaiholding-my.sharepoint.com/personal/arun_naidu_dhre_ae/Documents/Shared/ME/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7A9474-B6A4-429A-8B9E-FE0EB19F2D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{6005C7A6-E131-4D52-96E7-DAE6FF7B4E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D2E5C91-C4E1-4C48-800D-64570B558D5D}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="244">
   <si>
     <t>Status</t>
   </si>
@@ -745,6 +745,36 @@
   </si>
   <si>
     <t>ContractID</t>
+  </si>
+  <si>
+    <t>Z:\USERS\Concept design and Options Report_rev2_25.7 Including Appendices.pdf</t>
+  </si>
+  <si>
+    <t>WeekNumber</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>PC1.0</t>
+  </si>
+  <si>
+    <t>PC#01 - Payment Certificate.pdf</t>
+  </si>
+  <si>
+    <t>PAYMENT CERTIFICATE</t>
+  </si>
+  <si>
+    <t>PC # 01.0</t>
+  </si>
+  <si>
+    <t>Payment Certificate # 01</t>
+  </si>
+  <si>
+    <t>PC-01.PDF</t>
+  </si>
+  <si>
+    <t>https://dubaiholding-my.sharepoint.com/:b:/g/personal/arun_naidu_dhre_ae/EUysg7T3ajdIsj6J81h2b_8BqMv40tjbbnmHigxS5cyl8w?email=Arun.Naidu%40dhre.ae&amp;e=fNZcxb</t>
   </si>
 </sst>
 </file>
@@ -1163,19 +1193,19 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.81640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" style="7" customWidth="1"/>
-    <col min="7" max="8" width="12.1796875" customWidth="1"/>
-    <col min="9" max="9" width="23.36328125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="7" customWidth="1"/>
+    <col min="7" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -1213,7 +1243,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1242,7 +1272,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1271,7 +1301,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1300,7 +1330,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1329,7 +1359,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1358,7 +1388,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1387,7 +1417,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1416,7 +1446,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1445,7 +1475,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1474,7 +1504,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1503,7 +1533,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1532,7 +1562,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1561,7 +1591,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1590,7 +1620,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1619,7 +1649,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1648,7 +1678,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1677,7 +1707,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1706,7 +1736,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1735,7 +1765,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1764,7 +1794,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1793,7 +1823,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1822,7 +1852,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1851,7 +1881,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1880,7 +1910,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1909,7 +1939,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1938,7 +1968,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1967,7 +1997,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2014,21 +2044,21 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" style="5"/>
+    <col min="11" max="11" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>132</v>
       </c>
@@ -2063,7 +2093,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2092,7 +2122,7 @@
         <v>45550</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2121,7 +2151,7 @@
         <v>44900</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2150,7 +2180,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2179,7 +2209,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2208,7 +2238,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2237,7 +2267,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2266,7 +2296,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2295,7 +2325,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2324,7 +2354,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2353,7 +2383,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2382,7 +2412,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2411,7 +2441,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2440,7 +2470,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2469,7 +2499,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2498,7 +2528,7 @@
         <v>45178</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2527,7 +2557,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2556,7 +2586,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2585,7 +2615,7 @@
         <v>45328</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2614,7 +2644,7 @@
         <v>45485</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2643,7 +2673,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2672,7 +2702,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2701,7 +2731,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2730,7 +2760,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2759,7 +2789,7 @@
         <v>45659</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2788,7 +2818,7 @@
         <v>45660</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2817,7 +2847,7 @@
         <v>45661</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2855,30 +2885,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBBA4E3-A28A-4D5B-BF07-0EFEC9B4F80F}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.81640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>123</v>
       </c>
@@ -2922,7 +2953,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -2954,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -2977,7 +3008,7 @@
         <v>92</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>90</v>
+        <v>234</v>
       </c>
       <c r="J3" s="5">
         <v>45821</v>
@@ -2986,7 +3017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -3018,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>96</v>
       </c>
@@ -3050,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -3073,7 +3104,7 @@
         <v>107</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>90</v>
+        <v>234</v>
       </c>
       <c r="J6" s="5">
         <v>45426</v>
@@ -3082,7 +3113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -3112,17 +3143,51 @@
       </c>
       <c r="K7">
         <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E8" s="4">
+        <v>45827</v>
+      </c>
+      <c r="F8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G8" t="s">
+        <v>241</v>
+      </c>
+      <c r="H8" t="s">
+        <v>242</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="J8" s="5">
+        <v>45827</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{0EBB6C8D-787F-41BB-A920-35615D5D5329}"/>
-    <hyperlink ref="I3" r:id="rId2" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{518834F5-7D83-4314-ACA8-A6D56F9F865B}"/>
-    <hyperlink ref="I4" r:id="rId3" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{CE2C36E8-61DE-43CA-9DEF-B1E269FE43F6}"/>
-    <hyperlink ref="I5" r:id="rId4" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{8BB76875-D207-44C0-B5C2-EED4A34DCF5D}"/>
-    <hyperlink ref="I6" r:id="rId5" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{131136A8-2C69-4314-9FD7-479A9395FEFD}"/>
-    <hyperlink ref="I7" r:id="rId6" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{25E86267-E4B3-4C2E-9B69-4725234A8324}"/>
+    <hyperlink ref="I4" r:id="rId2" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{CE2C36E8-61DE-43CA-9DEF-B1E269FE43F6}"/>
+    <hyperlink ref="I5" r:id="rId3" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{8BB76875-D207-44C0-B5C2-EED4A34DCF5D}"/>
+    <hyperlink ref="I7" r:id="rId4" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{25E86267-E4B3-4C2E-9B69-4725234A8324}"/>
+    <hyperlink ref="I8" r:id="rId5" xr:uid="{37109284-EEF3-4A20-BCC8-34CC80CBDEFE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3130,19 +3195,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FCD525-7C72-5E4A-A411-2BC0A6F23C8E}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="10.90625" style="5"/>
-    <col min="7" max="7" width="103.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="5"/>
+    <col min="7" max="7" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>128</v>
       </c>
@@ -3170,8 +3236,11 @@
       <c r="I1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -3193,8 +3262,11 @@
       <c r="G2" s="3" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>199</v>
       </c>
@@ -3217,7 +3289,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>200</v>
       </c>
@@ -3240,7 +3312,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>201</v>
       </c>
@@ -3263,7 +3335,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>202</v>
       </c>
@@ -3286,7 +3358,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>203</v>
       </c>
@@ -3309,7 +3381,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>204</v>
       </c>
@@ -3332,7 +3404,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>205</v>
       </c>
@@ -3355,7 +3427,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>206</v>
       </c>
@@ -3378,7 +3450,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>207</v>
       </c>
@@ -3401,7 +3473,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>208</v>
       </c>
@@ -3424,7 +3496,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>209</v>
       </c>
@@ -3447,7 +3519,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>210</v>
       </c>
@@ -3470,7 +3542,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>211</v>
       </c>
@@ -3493,7 +3565,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>212</v>
       </c>
@@ -3516,7 +3588,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>213</v>
       </c>
@@ -3539,7 +3611,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>214</v>
       </c>
@@ -3562,7 +3634,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>215</v>
       </c>
@@ -3585,7 +3657,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>216</v>
       </c>
@@ -3608,7 +3680,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>217</v>
       </c>
@@ -3631,7 +3703,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>218</v>
       </c>
@@ -3654,7 +3726,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>219</v>
       </c>
@@ -3677,7 +3749,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>220</v>
       </c>
@@ -3700,7 +3772,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>221</v>
       </c>
@@ -3723,7 +3795,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>222</v>
       </c>
@@ -3746,7 +3818,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>223</v>
       </c>
@@ -3769,7 +3841,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>224</v>
       </c>
@@ -3799,6 +3871,7 @@
     <hyperlink ref="G3" r:id="rId2" xr:uid="{0CB1E825-0D9F-4BCD-92B3-8367B1F31843}"/>
     <hyperlink ref="G4" r:id="rId3" xr:uid="{861C6D81-B98A-4772-9841-D58066410233}"/>
     <hyperlink ref="G5:G28" r:id="rId4" display="https://raw.githubusercontent.com/Excalibur1902/me_dashboard/photos/DMS%20147906/Week1/20221008_190132.jpg" xr:uid="{47665502-F4E1-4E6E-9E20-6A2DA3ED7186}"/>
+    <hyperlink ref="G26" r:id="rId5" xr:uid="{7AFF8813-8241-4770-B4AE-3E3524085BF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ME_Data.xlsx
+++ b/ME_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dubaiholding-my.sharepoint.com/personal/arun_naidu_dhre_ae/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dubaiholding-my.sharepoint.com/personal/arun_naidu_dhre_ae/Documents/Shared/ME/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{999AAC9D-CB53-459D-8D86-EDE0C0C3D54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{6005C7A6-E131-4D52-96E7-DAE6FF7B4E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9621E28-3BE7-4060-B790-9A457EBB148E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="244">
   <si>
     <t>Status</t>
   </si>
@@ -748,6 +748,33 @@
   </si>
   <si>
     <t>Z:\USERS\Concept design and Options Report_rev2_25.7 Including Appendices.pdf</t>
+  </si>
+  <si>
+    <t>WeekNumber</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>PC1.0</t>
+  </si>
+  <si>
+    <t>PC#01 - Payment Certificate.pdf</t>
+  </si>
+  <si>
+    <t>PAYMENT CERTIFICATE</t>
+  </si>
+  <si>
+    <t>PC # 01.0</t>
+  </si>
+  <si>
+    <t>Payment Certificate # 01</t>
+  </si>
+  <si>
+    <t>PC-01.PDF</t>
+  </si>
+  <si>
+    <t>https://dubaiholding-my.sharepoint.com/:b:/g/personal/arun_naidu_dhre_ae/EUysg7T3ajdIsj6J81h2b_8BqMv40tjbbnmHigxS5cyl8w?email=Arun.Naidu%40dhre.ae&amp;e=fNZcxb</t>
   </si>
 </sst>
 </file>
@@ -2013,7 +2040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92AA489-E72A-4D21-B567-12214BF1A391}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -2858,22 +2885,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBBA4E3-A28A-4D5B-BF07-0EFEC9B4F80F}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.5703125" customWidth="1"/>
+    <col min="9" max="9" width="49.42578125" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -3117,6 +3145,41 @@
         <v>3</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E8" s="4">
+        <v>45827</v>
+      </c>
+      <c r="F8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G8" t="s">
+        <v>241</v>
+      </c>
+      <c r="H8" t="s">
+        <v>242</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="J8" s="5">
+        <v>45827</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -3124,6 +3187,7 @@
     <hyperlink ref="I4" r:id="rId2" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{CE2C36E8-61DE-43CA-9DEF-B1E269FE43F6}"/>
     <hyperlink ref="I5" r:id="rId3" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{8BB76875-D207-44C0-B5C2-EED4A34DCF5D}"/>
     <hyperlink ref="I7" r:id="rId4" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{25E86267-E4B3-4C2E-9B69-4725234A8324}"/>
+    <hyperlink ref="I8" r:id="rId5" xr:uid="{37109284-EEF3-4A20-BCC8-34CC80CBDEFE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3131,19 +3195,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FCD525-7C72-5E4A-A411-2BC0A6F23C8E}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="5"/>
-    <col min="7" max="7" width="103.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>128</v>
       </c>
@@ -3171,8 +3236,11 @@
       <c r="I1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -3194,8 +3262,11 @@
       <c r="G2" s="3" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>199</v>
       </c>
@@ -3218,7 +3289,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>200</v>
       </c>
@@ -3241,7 +3312,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>201</v>
       </c>
@@ -3264,7 +3335,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>202</v>
       </c>
@@ -3287,7 +3358,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>203</v>
       </c>
@@ -3310,7 +3381,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>204</v>
       </c>
@@ -3333,7 +3404,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>205</v>
       </c>
@@ -3356,7 +3427,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>206</v>
       </c>
@@ -3379,7 +3450,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>207</v>
       </c>
@@ -3402,7 +3473,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>208</v>
       </c>
@@ -3425,7 +3496,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>209</v>
       </c>
@@ -3448,7 +3519,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>210</v>
       </c>
@@ -3471,7 +3542,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>211</v>
       </c>
@@ -3494,7 +3565,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>212</v>
       </c>

--- a/ME_Data.xlsx
+++ b/ME_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dubaiholding-my.sharepoint.com/personal/arun_naidu_dhre_ae/Documents/Shared/ME/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{6005C7A6-E131-4D52-96E7-DAE6FF7B4E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9621E28-3BE7-4060-B790-9A457EBB148E}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{6005C7A6-E131-4D52-96E7-DAE6FF7B4E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08EC98A5-311B-4F57-A15C-95723D23FB29}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="249">
   <si>
     <t>Status</t>
   </si>
@@ -775,6 +775,21 @@
   </si>
   <si>
     <t>https://dubaiholding-my.sharepoint.com/:b:/g/personal/arun_naidu_dhre_ae/EUysg7T3ajdIsj6J81h2b_8BqMv40tjbbnmHigxS5cyl8w?email=Arun.Naidu%40dhre.ae&amp;e=fNZcxb</t>
+  </si>
+  <si>
+    <t>PC2.0</t>
+  </si>
+  <si>
+    <t>PC#02 - Payment Certificate.pdf</t>
+  </si>
+  <si>
+    <t>PC # 02.0</t>
+  </si>
+  <si>
+    <t>Payment Certificate # 02</t>
+  </si>
+  <si>
+    <t>PC-02.PDF</t>
   </si>
 </sst>
 </file>
@@ -868,6 +883,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2040,7 +2059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92AA489-E72A-4D21-B567-12214BF1A391}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -2885,10 +2904,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBBA4E3-A28A-4D5B-BF07-0EFEC9B4F80F}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3180,6 +3199,41 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" s="4">
+        <v>45828</v>
+      </c>
+      <c r="F9" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H9" t="s">
+        <v>248</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="J9" s="5">
+        <v>45828</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -3188,6 +3242,7 @@
     <hyperlink ref="I5" r:id="rId3" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{8BB76875-D207-44C0-B5C2-EED4A34DCF5D}"/>
     <hyperlink ref="I7" r:id="rId4" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{25E86267-E4B3-4C2E-9B69-4725234A8324}"/>
     <hyperlink ref="I8" r:id="rId5" xr:uid="{37109284-EEF3-4A20-BCC8-34CC80CBDEFE}"/>
+    <hyperlink ref="I9" r:id="rId6" xr:uid="{2AFD11D3-0132-4F91-9FC9-8BB932E8701B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ME_Data.xlsx
+++ b/ME_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dubaiholding-my.sharepoint.com/personal/arun_naidu_dhre_ae/Documents/Shared/ME/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{6005C7A6-E131-4D52-96E7-DAE6FF7B4E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D2E5C91-C4E1-4C48-800D-64570B558D5D}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{6005C7A6-E131-4D52-96E7-DAE6FF7B4E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE9196C5-9825-4C20-913E-0E2B822C2E67}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="261">
   <si>
     <t>Status</t>
   </si>
@@ -775,6 +775,57 @@
   </si>
   <si>
     <t>https://dubaiholding-my.sharepoint.com/:b:/g/personal/arun_naidu_dhre_ae/EUysg7T3ajdIsj6J81h2b_8BqMv40tjbbnmHigxS5cyl8w?email=Arun.Naidu%40dhre.ae&amp;e=fNZcxb</t>
+  </si>
+  <si>
+    <t>PC2.0</t>
+  </si>
+  <si>
+    <t>PC#02 - Payment Certificate.pdf</t>
+  </si>
+  <si>
+    <t>PC # 02.0</t>
+  </si>
+  <si>
+    <t>Payment Certificate # 02</t>
+  </si>
+  <si>
+    <t>PC-02.PDF</t>
+  </si>
+  <si>
+    <t>PC # 10.0</t>
+  </si>
+  <si>
+    <t>Payment Certificate # 10</t>
+  </si>
+  <si>
+    <t>PC-10.PDF</t>
+  </si>
+  <si>
+    <t>https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Shared/ME/assets/DMS%20148857-1/PC/PC-10.pdf?csf=1&amp;web=1&amp;e=mr3BhN</t>
+  </si>
+  <si>
+    <t>https://dubaiholding-my.sharepoint.com/:b:/g/personal/arun_naidu_dhre_ae/ESIzsO-xI6REnlqw-t01h_cB4FQk6_7bHj5PyHpxW9bpwQ?e=C8GgQD</t>
+  </si>
+  <si>
+    <t>PC10.0</t>
+  </si>
+  <si>
+    <t>PC#10 - Payment Certificate.pdf</t>
+  </si>
+  <si>
+    <t>PC11.0</t>
+  </si>
+  <si>
+    <t>PC#11 - Payment Certificate.pdf</t>
+  </si>
+  <si>
+    <t>PC # 11.0</t>
+  </si>
+  <si>
+    <t>Payment Certificate # 11</t>
+  </si>
+  <si>
+    <t>PC-11.PDF</t>
   </si>
 </sst>
 </file>
@@ -868,6 +919,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2885,10 +2940,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBBA4E3-A28A-4D5B-BF07-0EFEC9B4F80F}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2896,12 +2951,12 @@
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -3180,6 +3235,111 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" s="4">
+        <v>45828</v>
+      </c>
+      <c r="F9" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H9" t="s">
+        <v>248</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="J9" s="5">
+        <v>45828</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="4">
+        <v>45829</v>
+      </c>
+      <c r="F10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" t="s">
+        <v>250</v>
+      </c>
+      <c r="H10" t="s">
+        <v>251</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="J10" s="5">
+        <v>45829</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E11" s="4">
+        <v>45830</v>
+      </c>
+      <c r="F11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G11" t="s">
+        <v>259</v>
+      </c>
+      <c r="H11" t="s">
+        <v>260</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J11" s="5">
+        <v>45830</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -3188,6 +3348,9 @@
     <hyperlink ref="I5" r:id="rId3" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{8BB76875-D207-44C0-B5C2-EED4A34DCF5D}"/>
     <hyperlink ref="I7" r:id="rId4" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{25E86267-E4B3-4C2E-9B69-4725234A8324}"/>
     <hyperlink ref="I8" r:id="rId5" xr:uid="{37109284-EEF3-4A20-BCC8-34CC80CBDEFE}"/>
+    <hyperlink ref="I9" r:id="rId6" xr:uid="{2AFD11D3-0132-4F91-9FC9-8BB932E8701B}"/>
+    <hyperlink ref="I10" r:id="rId7" xr:uid="{EBE80D77-72E7-41A2-A4BF-AD698A939B1D}"/>
+    <hyperlink ref="I11" r:id="rId8" xr:uid="{191F835F-4B7A-483D-9161-6F5660764313}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ME_Data.xlsx
+++ b/ME_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dubaiholding-my.sharepoint.com/personal/arun_naidu_dhre_ae/Documents/Shared/ME/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{6005C7A6-E131-4D52-96E7-DAE6FF7B4E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE9196C5-9825-4C20-913E-0E2B822C2E67}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{6005C7A6-E131-4D52-96E7-DAE6FF7B4E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D3574FC-DD81-4BAA-8812-F6F8C19DC3F4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="262">
   <si>
     <t>Status</t>
   </si>
@@ -801,12 +801,6 @@
     <t>PC-10.PDF</t>
   </si>
   <si>
-    <t>https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Shared/ME/assets/DMS%20148857-1/PC/PC-10.pdf?csf=1&amp;web=1&amp;e=mr3BhN</t>
-  </si>
-  <si>
-    <t>https://dubaiholding-my.sharepoint.com/:b:/g/personal/arun_naidu_dhre_ae/ESIzsO-xI6REnlqw-t01h_cB4FQk6_7bHj5PyHpxW9bpwQ?e=C8GgQD</t>
-  </si>
-  <si>
     <t>PC10.0</t>
   </si>
   <si>
@@ -826,6 +820,15 @@
   </si>
   <si>
     <t>PC-11.PDF</t>
+  </si>
+  <si>
+    <t>https://dubaiholding-my.sharepoint.com/personal/arun_naidu_dhre_ae/Documents/Shared/ME/assets/DMS%20149250/PC/PC-04.pdf</t>
+  </si>
+  <si>
+    <t>https://dubaiholding-my.sharepoint.com/personal/arun_naidu_dhre_ae/Documents/Shared/ME/assets/DMS%20148857-1/PC/PC-09.pdf</t>
+  </si>
+  <si>
+    <t>https://dubaiholding-my.sharepoint.com/personal/arun_naidu_dhre_ae/Documents/Shared/ME/assets/DMS%20148857-1/PC/PC-10.pdf</t>
   </si>
 </sst>
 </file>
@@ -1244,9 +1247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AB72AA-E0A5-4964-A19A-4567899157D8}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2095,9 +2096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92AA489-E72A-4D21-B567-12214BF1A391}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2943,7 +2942,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3191,7 +3190,7 @@
         <v>108</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>90</v>
+        <v>259</v>
       </c>
       <c r="J7" s="5">
         <v>45427</v>
@@ -3272,13 +3271,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D10" t="s">
         <v>239</v>
@@ -3296,7 +3295,7 @@
         <v>251</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="J10" s="5">
         <v>45829</v>
@@ -3307,13 +3306,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D11" t="s">
         <v>239</v>
@@ -3322,16 +3321,16 @@
         <v>45830</v>
       </c>
       <c r="F11" t="s">
+        <v>256</v>
+      </c>
+      <c r="G11" t="s">
+        <v>257</v>
+      </c>
+      <c r="H11" t="s">
         <v>258</v>
       </c>
-      <c r="G11" t="s">
-        <v>259</v>
-      </c>
-      <c r="H11" t="s">
-        <v>260</v>
-      </c>
       <c r="I11" s="3" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="J11" s="5">
         <v>45830</v>
@@ -3346,11 +3345,11 @@
     <hyperlink ref="I2" r:id="rId1" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{0EBB6C8D-787F-41BB-A920-35615D5D5329}"/>
     <hyperlink ref="I4" r:id="rId2" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{CE2C36E8-61DE-43CA-9DEF-B1E269FE43F6}"/>
     <hyperlink ref="I5" r:id="rId3" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{8BB76875-D207-44C0-B5C2-EED4A34DCF5D}"/>
-    <hyperlink ref="I7" r:id="rId4" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{25E86267-E4B3-4C2E-9B69-4725234A8324}"/>
-    <hyperlink ref="I8" r:id="rId5" xr:uid="{37109284-EEF3-4A20-BCC8-34CC80CBDEFE}"/>
-    <hyperlink ref="I9" r:id="rId6" xr:uid="{2AFD11D3-0132-4F91-9FC9-8BB932E8701B}"/>
-    <hyperlink ref="I10" r:id="rId7" xr:uid="{EBE80D77-72E7-41A2-A4BF-AD698A939B1D}"/>
-    <hyperlink ref="I11" r:id="rId8" xr:uid="{191F835F-4B7A-483D-9161-6F5660764313}"/>
+    <hyperlink ref="I8" r:id="rId4" xr:uid="{37109284-EEF3-4A20-BCC8-34CC80CBDEFE}"/>
+    <hyperlink ref="I9" r:id="rId5" xr:uid="{2AFD11D3-0132-4F91-9FC9-8BB932E8701B}"/>
+    <hyperlink ref="I7" r:id="rId6" xr:uid="{8AAB656D-9F09-42C6-9E36-BECC0256800A}"/>
+    <hyperlink ref="I10" r:id="rId7" xr:uid="{C5E1FF11-DCC8-4297-9946-C5608FB6BC50}"/>
+    <hyperlink ref="I11" r:id="rId8" xr:uid="{AD387607-626C-45DE-94C2-74D638B431D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3360,9 +3359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FCD525-7C72-5E4A-A411-2BC0A6F23C8E}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/ME_Data.xlsx
+++ b/ME_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dubaiholding-my.sharepoint.com/personal/arun_naidu_dhre_ae/Documents/Shared/ME/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{6005C7A6-E131-4D52-96E7-DAE6FF7B4E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08EC98A5-311B-4F57-A15C-95723D23FB29}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{6005C7A6-E131-4D52-96E7-DAE6FF7B4E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D3574FC-DD81-4BAA-8812-F6F8C19DC3F4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="262">
   <si>
     <t>Status</t>
   </si>
@@ -790,6 +790,45 @@
   </si>
   <si>
     <t>PC-02.PDF</t>
+  </si>
+  <si>
+    <t>PC # 10.0</t>
+  </si>
+  <si>
+    <t>Payment Certificate # 10</t>
+  </si>
+  <si>
+    <t>PC-10.PDF</t>
+  </si>
+  <si>
+    <t>PC10.0</t>
+  </si>
+  <si>
+    <t>PC#10 - Payment Certificate.pdf</t>
+  </si>
+  <si>
+    <t>PC11.0</t>
+  </si>
+  <si>
+    <t>PC#11 - Payment Certificate.pdf</t>
+  </si>
+  <si>
+    <t>PC # 11.0</t>
+  </si>
+  <si>
+    <t>Payment Certificate # 11</t>
+  </si>
+  <si>
+    <t>PC-11.PDF</t>
+  </si>
+  <si>
+    <t>https://dubaiholding-my.sharepoint.com/personal/arun_naidu_dhre_ae/Documents/Shared/ME/assets/DMS%20149250/PC/PC-04.pdf</t>
+  </si>
+  <si>
+    <t>https://dubaiholding-my.sharepoint.com/personal/arun_naidu_dhre_ae/Documents/Shared/ME/assets/DMS%20148857-1/PC/PC-09.pdf</t>
+  </si>
+  <si>
+    <t>https://dubaiholding-my.sharepoint.com/personal/arun_naidu_dhre_ae/Documents/Shared/ME/assets/DMS%20148857-1/PC/PC-10.pdf</t>
   </si>
 </sst>
 </file>
@@ -1208,9 +1247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AB72AA-E0A5-4964-A19A-4567899157D8}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2059,9 +2096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92AA489-E72A-4D21-B567-12214BF1A391}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2904,10 +2939,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBBA4E3-A28A-4D5B-BF07-0EFEC9B4F80F}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2920,7 +2955,7 @@
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -3155,7 +3190,7 @@
         <v>108</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>90</v>
+        <v>259</v>
       </c>
       <c r="J7" s="5">
         <v>45427</v>
@@ -3231,6 +3266,76 @@
         <v>45828</v>
       </c>
       <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="4">
+        <v>45829</v>
+      </c>
+      <c r="F10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" t="s">
+        <v>250</v>
+      </c>
+      <c r="H10" t="s">
+        <v>251</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J10" s="5">
+        <v>45829</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E11" s="4">
+        <v>45830</v>
+      </c>
+      <c r="F11" t="s">
+        <v>256</v>
+      </c>
+      <c r="G11" t="s">
+        <v>257</v>
+      </c>
+      <c r="H11" t="s">
+        <v>258</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J11" s="5">
+        <v>45830</v>
+      </c>
+      <c r="K11">
         <v>0</v>
       </c>
     </row>
@@ -3240,9 +3345,11 @@
     <hyperlink ref="I2" r:id="rId1" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{0EBB6C8D-787F-41BB-A920-35615D5D5329}"/>
     <hyperlink ref="I4" r:id="rId2" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{CE2C36E8-61DE-43CA-9DEF-B1E269FE43F6}"/>
     <hyperlink ref="I5" r:id="rId3" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{8BB76875-D207-44C0-B5C2-EED4A34DCF5D}"/>
-    <hyperlink ref="I7" r:id="rId4" display="https://dubaiholding-my.sharepoint.com/:b:/r/personal/arun_naidu_dhre_ae/Documents/Documents/NME/MARINE/DMS%20148763%20-%20Marine%20Works%20Including%20Dredging%20and%20Land%20Reclamation%20(Jan%20De%20Nul)/EMPLOYERS%20REPRESENTATIVES%20INSTRUCTION/ERI%2301/NKL-LT-12161%20-%20ERI%2301%20-%20Additional%20Sand%20Stockpiles.pdf?csf=1&amp;web=1&amp;e=7f8NQc" xr:uid="{25E86267-E4B3-4C2E-9B69-4725234A8324}"/>
-    <hyperlink ref="I8" r:id="rId5" xr:uid="{37109284-EEF3-4A20-BCC8-34CC80CBDEFE}"/>
-    <hyperlink ref="I9" r:id="rId6" xr:uid="{2AFD11D3-0132-4F91-9FC9-8BB932E8701B}"/>
+    <hyperlink ref="I8" r:id="rId4" xr:uid="{37109284-EEF3-4A20-BCC8-34CC80CBDEFE}"/>
+    <hyperlink ref="I9" r:id="rId5" xr:uid="{2AFD11D3-0132-4F91-9FC9-8BB932E8701B}"/>
+    <hyperlink ref="I7" r:id="rId6" xr:uid="{8AAB656D-9F09-42C6-9E36-BECC0256800A}"/>
+    <hyperlink ref="I10" r:id="rId7" xr:uid="{C5E1FF11-DCC8-4297-9946-C5608FB6BC50}"/>
+    <hyperlink ref="I11" r:id="rId8" xr:uid="{AD387607-626C-45DE-94C2-74D638B431D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3252,9 +3359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FCD525-7C72-5E4A-A411-2BC0A6F23C8E}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/ME_Data.xlsx
+++ b/ME_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dubaiholding-my.sharepoint.com/personal/arun_naidu_dhre_ae/Documents/Shared/ME/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{6005C7A6-E131-4D52-96E7-DAE6FF7B4E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D3574FC-DD81-4BAA-8812-F6F8C19DC3F4}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{6005C7A6-E131-4D52-96E7-DAE6FF7B4E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9ABF0B72-1EBA-4191-9D2E-0A842E4F4423}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
   </bookViews>
@@ -807,21 +807,9 @@
     <t>PC#10 - Payment Certificate.pdf</t>
   </si>
   <si>
-    <t>PC11.0</t>
-  </si>
-  <si>
     <t>PC#11 - Payment Certificate.pdf</t>
   </si>
   <si>
-    <t>PC # 11.0</t>
-  </si>
-  <si>
-    <t>Payment Certificate # 11</t>
-  </si>
-  <si>
-    <t>PC-11.PDF</t>
-  </si>
-  <si>
     <t>https://dubaiholding-my.sharepoint.com/personal/arun_naidu_dhre_ae/Documents/Shared/ME/assets/DMS%20149250/PC/PC-04.pdf</t>
   </si>
   <si>
@@ -829,6 +817,18 @@
   </si>
   <si>
     <t>https://dubaiholding-my.sharepoint.com/personal/arun_naidu_dhre_ae/Documents/Shared/ME/assets/DMS%20148857-1/PC/PC-10.pdf</t>
+  </si>
+  <si>
+    <t>PC9.0</t>
+  </si>
+  <si>
+    <t>PC # 09.0</t>
+  </si>
+  <si>
+    <t>Payment Certificate # 09</t>
+  </si>
+  <si>
+    <t>PC-09.PDF</t>
   </si>
 </sst>
 </file>
@@ -2942,7 +2942,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3190,7 +3190,7 @@
         <v>108</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J7" s="5">
         <v>45427</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -3286,16 +3286,16 @@
         <v>45829</v>
       </c>
       <c r="F10" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="G10" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="H10" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J10" s="5">
         <v>45829</v>
@@ -3306,13 +3306,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D11" t="s">
         <v>239</v>
@@ -3321,16 +3321,16 @@
         <v>45830</v>
       </c>
       <c r="F11" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G11" t="s">
+        <v>250</v>
+      </c>
+      <c r="H11" t="s">
+        <v>251</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="H11" t="s">
-        <v>258</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="J11" s="5">
         <v>45830</v>
@@ -3348,8 +3348,8 @@
     <hyperlink ref="I8" r:id="rId4" xr:uid="{37109284-EEF3-4A20-BCC8-34CC80CBDEFE}"/>
     <hyperlink ref="I9" r:id="rId5" xr:uid="{2AFD11D3-0132-4F91-9FC9-8BB932E8701B}"/>
     <hyperlink ref="I7" r:id="rId6" xr:uid="{8AAB656D-9F09-42C6-9E36-BECC0256800A}"/>
-    <hyperlink ref="I10" r:id="rId7" xr:uid="{C5E1FF11-DCC8-4297-9946-C5608FB6BC50}"/>
-    <hyperlink ref="I11" r:id="rId8" xr:uid="{AD387607-626C-45DE-94C2-74D638B431D6}"/>
+    <hyperlink ref="I10" r:id="rId7" xr:uid="{290C68D6-3593-4627-9BB1-27A32713C485}"/>
+    <hyperlink ref="I11" r:id="rId8" xr:uid="{53C0FB2D-37BB-4008-8FAD-3BFB4AC1334F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ME_Data.xlsx
+++ b/ME_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dubaiholding-my.sharepoint.com/personal/arun_naidu_dhre_ae/Documents/Shared/ME/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{6005C7A6-E131-4D52-96E7-DAE6FF7B4E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9ABF0B72-1EBA-4191-9D2E-0A842E4F4423}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{6005C7A6-E131-4D52-96E7-DAE6FF7B4E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FBEDC1C-0813-4A2B-B4B4-51A4B70C0451}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C9FC12F5-5364-433D-9F99-562824EBE2F3}"/>
   </bookViews>
@@ -807,9 +807,6 @@
     <t>PC#10 - Payment Certificate.pdf</t>
   </si>
   <si>
-    <t>PC#11 - Payment Certificate.pdf</t>
-  </si>
-  <si>
     <t>https://dubaiholding-my.sharepoint.com/personal/arun_naidu_dhre_ae/Documents/Shared/ME/assets/DMS%20149250/PC/PC-04.pdf</t>
   </si>
   <si>
@@ -829,6 +826,9 @@
   </si>
   <si>
     <t>PC-09.PDF</t>
+  </si>
+  <si>
+    <t>PC#09 - Payment Certificate.pdf</t>
   </si>
 </sst>
 </file>
@@ -2942,7 +2942,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3190,7 +3190,7 @@
         <v>108</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J7" s="5">
         <v>45427</v>
@@ -3271,13 +3271,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D10" t="s">
         <v>239</v>
@@ -3286,16 +3286,16 @@
         <v>45829</v>
       </c>
       <c r="F10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G10" t="s">
         <v>259</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>260</v>
       </c>
-      <c r="H10" t="s">
-        <v>261</v>
-      </c>
       <c r="I10" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J10" s="5">
         <v>45829</v>
@@ -3312,7 +3312,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D11" t="s">
         <v>239</v>
@@ -3330,7 +3330,7 @@
         <v>251</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J11" s="5">
         <v>45830</v>

--- a/ME_Data.xlsx
+++ b/ME_Data.xlsx
@@ -2942,7 +2942,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
